--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544261.334612273</v>
+        <v>-2546180.753979142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.3294377933058</v>
+        <v>336.4786356669601</v>
       </c>
       <c r="C11" t="n">
         <v>319.0176857744871</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>308.4278356241625</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>360.6208397451909</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>366.3767303348941</v>
       </c>
       <c r="H11" t="n">
-        <v>265.8672534964699</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.25462093850417</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.9039816156959</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1492113858747</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>178.723869086018</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.9857627208925</v>
       </c>
       <c r="X11" t="n">
         <v>323.4758946819485</v>
@@ -1464,10 +1464,10 @@
         <v>135.9145125487323</v>
       </c>
       <c r="H12" t="n">
-        <v>98.43426809140308</v>
+        <v>98.4342680914031</v>
       </c>
       <c r="I12" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749003</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.43419677301465</v>
+        <v>11.4341967730147</v>
       </c>
       <c r="S12" t="n">
         <v>145.1400371463127</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>94.62856869410739</v>
+        <v>102.3602670216919</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>100.1787566500487</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.16584202641076</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>105.3203954457954</v>
       </c>
       <c r="I13" t="n">
-        <v>73.16725555299843</v>
+        <v>73.16725555299848</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.17042414537126</v>
+        <v>77.17042414537133</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.8830058115744</v>
       </c>
       <c r="T13" t="n">
-        <v>176.571530261405</v>
+        <v>176.5715302614051</v>
       </c>
       <c r="U13" t="n">
-        <v>239.9984762982212</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8824373273075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>240.2677923400705</v>
+        <v>83.29223351876772</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4544493925166</v>
+        <v>179.4544493925167</v>
       </c>
       <c r="Y13" t="n">
         <v>172.3294473555743</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.4786356669601</v>
+        <v>118.262893994121</v>
       </c>
       <c r="C14" t="n">
         <v>319.0176857744871</v>
       </c>
       <c r="D14" t="n">
-        <v>163.3766598410629</v>
+        <v>308.4278356241625</v>
       </c>
       <c r="E14" t="n">
         <v>335.6751640757413</v>
       </c>
       <c r="F14" t="n">
-        <v>360.620839745191</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>366.3767303348942</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>265.86725349647</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.25462093850423</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.9039816156959</v>
+        <v>101.903981615696</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>165.1492113858748</v>
       </c>
       <c r="U14" t="n">
         <v>204.8767828166184</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>281.4970524736145</v>
       </c>
       <c r="W14" t="n">
         <v>302.9857627208926</v>
@@ -1673,7 +1673,7 @@
         <v>323.4758946819486</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9827326595331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.9145125487323</v>
       </c>
       <c r="H15" t="n">
-        <v>98.43426809140308</v>
+        <v>98.4342680914031</v>
       </c>
       <c r="I15" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749003</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.43419677301465</v>
+        <v>11.4341967730147</v>
       </c>
       <c r="S15" t="n">
         <v>145.1400371463127</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.5767741854169</v>
       </c>
       <c r="C16" t="n">
         <v>120.9916151021074</v>
       </c>
       <c r="D16" t="n">
-        <v>22.63638510773265</v>
+        <v>102.3602670216919</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.1787566500487</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.16584202641081</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.5377438965359</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>105.3203954457955</v>
       </c>
       <c r="I16" t="n">
-        <v>73.16725555299848</v>
+        <v>73.16725555299854</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.17042414537131</v>
+        <v>77.17042414537138</v>
       </c>
       <c r="S16" t="n">
-        <v>156.8830058115744</v>
+        <v>156.8830058115745</v>
       </c>
       <c r="T16" t="n">
-        <v>176.5715302614051</v>
+        <v>18.33440478152872</v>
       </c>
       <c r="U16" t="n">
-        <v>239.9984762982212</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>240.2677923400705</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>179.4544493925167</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.3294473555743</v>
+        <v>172.3294473555744</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>275.2240147284559</v>
       </c>
       <c r="C17" t="n">
-        <v>257.7630648359828</v>
+        <v>257.7630648359829</v>
       </c>
       <c r="D17" t="n">
         <v>247.1732146856583</v>
@@ -1853,10 +1853,10 @@
         <v>274.4205431372371</v>
       </c>
       <c r="F17" t="n">
-        <v>299.3662188066867</v>
+        <v>299.3662188066868</v>
       </c>
       <c r="G17" t="n">
-        <v>305.1221093963899</v>
+        <v>305.12210939639</v>
       </c>
       <c r="H17" t="n">
         <v>204.6126325579658</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.64936067719167</v>
+        <v>40.64936067719175</v>
       </c>
       <c r="T17" t="n">
-        <v>103.8945904473704</v>
+        <v>103.8945904473706</v>
       </c>
       <c r="U17" t="n">
         <v>143.6221618781142</v>
       </c>
       <c r="V17" t="n">
-        <v>220.2424315351102</v>
+        <v>220.2424315351103</v>
       </c>
       <c r="W17" t="n">
-        <v>241.7311417823883</v>
+        <v>241.7311417823884</v>
       </c>
       <c r="X17" t="n">
-        <v>262.2212737434443</v>
+        <v>262.2212737434444</v>
       </c>
       <c r="Y17" t="n">
         <v>278.7281117210289</v>
@@ -1938,10 +1938,10 @@
         <v>135.9145125487323</v>
       </c>
       <c r="H18" t="n">
-        <v>98.43426809140308</v>
+        <v>98.4342680914031</v>
       </c>
       <c r="I18" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749003</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.43419677301465</v>
+        <v>11.4341967730147</v>
       </c>
       <c r="S18" t="n">
         <v>145.1400371463127</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.32215324691259</v>
+        <v>72.32215324691263</v>
       </c>
       <c r="C19" t="n">
-        <v>59.73699416360313</v>
+        <v>59.73699416360317</v>
       </c>
       <c r="D19" t="n">
-        <v>41.10564608318765</v>
+        <v>41.10564608318769</v>
       </c>
       <c r="E19" t="n">
-        <v>38.92413571154447</v>
+        <v>38.92413571154451</v>
       </c>
       <c r="F19" t="n">
-        <v>37.91122108790654</v>
+        <v>37.91122108790658</v>
       </c>
       <c r="G19" t="n">
-        <v>59.2831229580316</v>
+        <v>59.28312295803164</v>
       </c>
       <c r="H19" t="n">
-        <v>44.0657745072912</v>
+        <v>44.06577450729125</v>
       </c>
       <c r="I19" t="n">
-        <v>11.91263461449424</v>
+        <v>11.91263461449431</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.91580320686707</v>
+        <v>15.91580320686715</v>
       </c>
       <c r="S19" t="n">
-        <v>95.6283848730702</v>
+        <v>95.62838487307026</v>
       </c>
       <c r="T19" t="n">
-        <v>115.3169093229008</v>
+        <v>115.3169093229009</v>
       </c>
       <c r="U19" t="n">
-        <v>178.7438553597169</v>
+        <v>178.743855359717</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6278163888033</v>
+        <v>144.6278163888034</v>
       </c>
       <c r="W19" t="n">
-        <v>179.0131714015663</v>
+        <v>179.0131714015664</v>
       </c>
       <c r="X19" t="n">
-        <v>118.1998284540124</v>
+        <v>118.1998284540125</v>
       </c>
       <c r="Y19" t="n">
         <v>111.0748264170701</v>
@@ -2087,7 +2087,7 @@
         <v>247.1732146856583</v>
       </c>
       <c r="E20" t="n">
-        <v>274.4205431372371</v>
+        <v>274.4205431372378</v>
       </c>
       <c r="F20" t="n">
         <v>299.3662188066867</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.64936067719168</v>
+        <v>40.64936067719169</v>
       </c>
       <c r="T20" t="n">
         <v>103.8945904473705</v>
       </c>
       <c r="U20" t="n">
-        <v>143.6221618781142</v>
+        <v>143.6221618781141</v>
       </c>
       <c r="V20" t="n">
         <v>220.2424315351102</v>
@@ -2178,7 +2178,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I21" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749002</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S21" t="n">
         <v>145.1400371463127</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.32215324691259</v>
+        <v>72.32215324691258</v>
       </c>
       <c r="C22" t="n">
-        <v>59.73699416360313</v>
+        <v>59.73699416360311</v>
       </c>
       <c r="D22" t="n">
-        <v>41.10564608318765</v>
+        <v>41.10564608318764</v>
       </c>
       <c r="E22" t="n">
-        <v>38.92413571154447</v>
+        <v>38.92413571154445</v>
       </c>
       <c r="F22" t="n">
-        <v>37.91122108790654</v>
+        <v>37.91122108790653</v>
       </c>
       <c r="G22" t="n">
-        <v>59.2831229580316</v>
+        <v>59.28312295803158</v>
       </c>
       <c r="H22" t="n">
         <v>44.0657745072912</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.91580320686707</v>
+        <v>15.91580320686708</v>
       </c>
       <c r="S22" t="n">
         <v>95.6283848730702</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.64936067719168</v>
+        <v>40.64936067719169</v>
       </c>
       <c r="T23" t="n">
         <v>103.8945904473705</v>
       </c>
       <c r="U23" t="n">
-        <v>143.6221618781142</v>
+        <v>143.6221618781141</v>
       </c>
       <c r="V23" t="n">
         <v>220.2424315351102</v>
@@ -2415,7 +2415,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I24" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749002</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S24" t="n">
         <v>145.1400371463127</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.32215324691259</v>
+        <v>72.32215324691258</v>
       </c>
       <c r="C25" t="n">
-        <v>59.73699416360313</v>
+        <v>59.73699416360311</v>
       </c>
       <c r="D25" t="n">
-        <v>41.10564608318765</v>
+        <v>41.10564608318764</v>
       </c>
       <c r="E25" t="n">
-        <v>38.92413571154447</v>
+        <v>38.92413571154445</v>
       </c>
       <c r="F25" t="n">
-        <v>37.91122108790654</v>
+        <v>37.91122108790653</v>
       </c>
       <c r="G25" t="n">
-        <v>59.2831229580316</v>
+        <v>59.28312295803158</v>
       </c>
       <c r="H25" t="n">
         <v>44.0657745072912</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.91580320686707</v>
+        <v>15.91580320686708</v>
       </c>
       <c r="S25" t="n">
         <v>95.6283848730702</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.0609554110344</v>
+        <v>301.0609554110343</v>
       </c>
       <c r="C26" t="n">
-        <v>283.6000055185614</v>
+        <v>283.6000055185613</v>
       </c>
       <c r="D26" t="n">
-        <v>273.0101553682368</v>
+        <v>273.0101553682367</v>
       </c>
       <c r="E26" t="n">
-        <v>300.2574838198156</v>
+        <v>300.2574838198155</v>
       </c>
       <c r="F26" t="n">
-        <v>325.2031594892653</v>
+        <v>325.2031594892652</v>
       </c>
       <c r="G26" t="n">
-        <v>330.9590500789685</v>
+        <v>330.9590500789684</v>
       </c>
       <c r="H26" t="n">
-        <v>230.4495732405443</v>
+        <v>230.4495732405442</v>
       </c>
       <c r="I26" t="n">
-        <v>25.83694068257842</v>
+        <v>25.8369406825784</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.48630135977021</v>
+        <v>66.48630135977017</v>
       </c>
       <c r="T26" t="n">
-        <v>129.7315311299491</v>
+        <v>129.731531129949</v>
       </c>
       <c r="U26" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V26" t="n">
         <v>246.0793722176887</v>
@@ -2618,7 +2618,7 @@
         <v>267.5680824649668</v>
       </c>
       <c r="X26" t="n">
-        <v>288.0582144260229</v>
+        <v>288.0582144260228</v>
       </c>
       <c r="Y26" t="n">
         <v>304.5650524036074</v>
@@ -2652,7 +2652,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I27" t="n">
-        <v>40.19625467749</v>
+        <v>40.19625467749002</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.43419677301465</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S27" t="n">
         <v>145.1400371463127</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.15909392949112</v>
+        <v>98.15909392949105</v>
       </c>
       <c r="C28" t="n">
-        <v>85.57393484618166</v>
+        <v>85.57393484618159</v>
       </c>
       <c r="D28" t="n">
-        <v>66.94258676576618</v>
+        <v>66.94258676576611</v>
       </c>
       <c r="E28" t="n">
-        <v>64.76107639412299</v>
+        <v>64.76107639412292</v>
       </c>
       <c r="F28" t="n">
-        <v>63.74816177048507</v>
+        <v>63.748161770485</v>
       </c>
       <c r="G28" t="n">
-        <v>85.12006364061011</v>
+        <v>85.12006364061007</v>
       </c>
       <c r="H28" t="n">
-        <v>69.90271518986972</v>
+        <v>69.90271518986968</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74957529707277</v>
+        <v>37.74957529707272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7527438894456</v>
+        <v>41.75274388944555</v>
       </c>
       <c r="S28" t="n">
         <v>121.4653255556487</v>
       </c>
       <c r="T28" t="n">
-        <v>141.1538500054794</v>
+        <v>141.1538500054793</v>
       </c>
       <c r="U28" t="n">
-        <v>204.5807960422955</v>
+        <v>204.5807960422954</v>
       </c>
       <c r="V28" t="n">
         <v>170.4647570713818</v>
@@ -2776,7 +2776,7 @@
         <v>204.8501120841448</v>
       </c>
       <c r="X28" t="n">
-        <v>144.036769136591</v>
+        <v>144.0367691365909</v>
       </c>
       <c r="Y28" t="n">
         <v>136.9117670996486</v>
@@ -2810,7 +2810,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I29" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257842</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T29" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U29" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V29" t="n">
         <v>246.0793722176887</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949108</v>
       </c>
       <c r="C31" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618161</v>
       </c>
       <c r="D31" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576614</v>
       </c>
       <c r="E31" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412295</v>
       </c>
       <c r="F31" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048503</v>
       </c>
       <c r="G31" t="n">
-        <v>85.12006364061006</v>
+        <v>85.12006364061007</v>
       </c>
       <c r="H31" t="n">
-        <v>69.90271518986968</v>
+        <v>69.9027151898697</v>
       </c>
       <c r="I31" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75274388944662</v>
+        <v>41.75274388944558</v>
       </c>
       <c r="S31" t="n">
         <v>121.4653255556487</v>
@@ -3047,7 +3047,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I32" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257842</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T32" t="n">
         <v>129.731531129949</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S33" t="n">
         <v>145.1400371463127</v>
@@ -3199,13 +3199,13 @@
         <v>63.74816177048501</v>
       </c>
       <c r="G34" t="n">
-        <v>85.12006364061006</v>
+        <v>85.12006364061008</v>
       </c>
       <c r="H34" t="n">
         <v>69.9027151898697</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75274388944555</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S34" t="n">
         <v>121.4653255556487</v>
@@ -3284,7 +3284,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I35" t="n">
-        <v>25.83694068257842</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.48630135977017</v>
+        <v>66.48630135977015</v>
       </c>
       <c r="T35" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U35" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V35" t="n">
-        <v>246.0793722176887</v>
+        <v>246.0793722176886</v>
       </c>
       <c r="W35" t="n">
         <v>267.5680824649668</v>
@@ -3332,7 +3332,7 @@
         <v>288.0582144260228</v>
       </c>
       <c r="Y35" t="n">
-        <v>304.5650524036074</v>
+        <v>304.5650524036073</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S36" t="n">
         <v>145.1400371463127</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949104</v>
       </c>
       <c r="C37" t="n">
-        <v>85.57393484618161</v>
+        <v>85.57393484618157</v>
       </c>
       <c r="D37" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576609</v>
       </c>
       <c r="E37" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412291</v>
       </c>
       <c r="F37" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048498</v>
       </c>
       <c r="G37" t="n">
-        <v>85.12006364061007</v>
+        <v>85.12006364061006</v>
       </c>
       <c r="H37" t="n">
-        <v>69.90271518986971</v>
+        <v>69.90271518986967</v>
       </c>
       <c r="I37" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707271</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944554</v>
       </c>
       <c r="S37" t="n">
         <v>121.4653255556487</v>
@@ -3481,16 +3481,16 @@
         <v>204.5807960422954</v>
       </c>
       <c r="V37" t="n">
-        <v>170.4647570713818</v>
+        <v>170.4647570713817</v>
       </c>
       <c r="W37" t="n">
-        <v>204.8501120841448</v>
+        <v>204.8501120841447</v>
       </c>
       <c r="X37" t="n">
         <v>144.0367691365909</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996485</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C38" t="n">
-        <v>283.6000055185614</v>
+        <v>283.6000055185613</v>
       </c>
       <c r="D38" t="n">
         <v>273.0101553682367</v>
@@ -3518,10 +3518,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H38" t="n">
-        <v>230.4495732405443</v>
+        <v>230.4495732405442</v>
       </c>
       <c r="I38" t="n">
-        <v>25.83694068257843</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.48630135977018</v>
+        <v>66.48630135977015</v>
       </c>
       <c r="T38" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U38" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V38" t="n">
-        <v>246.0793722176887</v>
+        <v>246.0793722176886</v>
       </c>
       <c r="W38" t="n">
         <v>267.5680824649668</v>
@@ -3569,7 +3569,7 @@
         <v>288.0582144260228</v>
       </c>
       <c r="Y38" t="n">
-        <v>304.5650524036074</v>
+        <v>304.5650524036073</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S39" t="n">
         <v>145.1400371463127</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.15909392949109</v>
+        <v>98.15909392949104</v>
       </c>
       <c r="C40" t="n">
-        <v>85.57393484618163</v>
+        <v>85.57393484618157</v>
       </c>
       <c r="D40" t="n">
-        <v>66.94258676576615</v>
+        <v>66.94258676576609</v>
       </c>
       <c r="E40" t="n">
-        <v>64.76107639412297</v>
+        <v>64.76107639412291</v>
       </c>
       <c r="F40" t="n">
-        <v>63.74816177048504</v>
+        <v>63.74816177048498</v>
       </c>
       <c r="G40" t="n">
-        <v>85.1200636406101</v>
+        <v>85.12006364061004</v>
       </c>
       <c r="H40" t="n">
-        <v>69.90271518986971</v>
+        <v>69.90271518986965</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74957529707275</v>
+        <v>37.7495752970727</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75274388944559</v>
+        <v>41.75274388944554</v>
       </c>
       <c r="S40" t="n">
         <v>121.4653255556487</v>
@@ -3718,16 +3718,16 @@
         <v>204.5807960422954</v>
       </c>
       <c r="V40" t="n">
-        <v>170.4647570713818</v>
+        <v>170.4647570713817</v>
       </c>
       <c r="W40" t="n">
-        <v>204.8501120841448</v>
+        <v>204.8501120841447</v>
       </c>
       <c r="X40" t="n">
         <v>144.0367691365909</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996485</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I41" t="n">
-        <v>25.83694068257837</v>
+        <v>25.83694068257842</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.48630135977012</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T41" t="n">
         <v>129.731531129949</v>
@@ -3797,7 +3797,7 @@
         <v>169.4591025606926</v>
       </c>
       <c r="V41" t="n">
-        <v>246.0793722176886</v>
+        <v>246.0793722176887</v>
       </c>
       <c r="W41" t="n">
         <v>267.5680824649668</v>
@@ -3806,7 +3806,7 @@
         <v>288.0582144260228</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.5650524036073</v>
+        <v>304.5650524036074</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S42" t="n">
         <v>145.1400371463127</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.15909392949104</v>
+        <v>98.15909392949106</v>
       </c>
       <c r="C43" t="n">
-        <v>85.57393484618157</v>
+        <v>85.5739348461816</v>
       </c>
       <c r="D43" t="n">
-        <v>66.94258676576609</v>
+        <v>66.94258676576612</v>
       </c>
       <c r="E43" t="n">
-        <v>64.76107639412291</v>
+        <v>64.76107639412294</v>
       </c>
       <c r="F43" t="n">
-        <v>63.74816177048498</v>
+        <v>63.74816177048501</v>
       </c>
       <c r="G43" t="n">
-        <v>85.12006364061003</v>
+        <v>85.12006364061008</v>
       </c>
       <c r="H43" t="n">
-        <v>69.90271518986967</v>
+        <v>69.9027151898697</v>
       </c>
       <c r="I43" t="n">
-        <v>37.7495752970727</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75274388944553</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S43" t="n">
         <v>121.4653255556487</v>
@@ -3955,16 +3955,16 @@
         <v>204.5807960422954</v>
       </c>
       <c r="V43" t="n">
-        <v>170.4647570713817</v>
+        <v>170.4647570713818</v>
       </c>
       <c r="W43" t="n">
-        <v>204.8501120841447</v>
+        <v>204.8501120841448</v>
       </c>
       <c r="X43" t="n">
         <v>144.0367691365909</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.9117670996485</v>
+        <v>136.9117670996486</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110342</v>
       </c>
       <c r="C44" t="n">
         <v>283.6000055185613</v>
       </c>
       <c r="D44" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682366</v>
       </c>
       <c r="E44" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198154</v>
       </c>
       <c r="F44" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892651</v>
       </c>
       <c r="G44" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789683</v>
       </c>
       <c r="H44" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405441</v>
       </c>
       <c r="I44" t="n">
-        <v>25.83694068257837</v>
+        <v>25.83694068257833</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.48630135977012</v>
+        <v>66.4863013597701</v>
       </c>
       <c r="T44" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299489</v>
       </c>
       <c r="U44" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606925</v>
       </c>
       <c r="V44" t="n">
         <v>246.0793722176886</v>
       </c>
       <c r="W44" t="n">
-        <v>267.5680824649668</v>
+        <v>267.5680824649667</v>
       </c>
       <c r="X44" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260227</v>
       </c>
       <c r="Y44" t="n">
         <v>304.5650524036073</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301469</v>
       </c>
       <c r="S45" t="n">
         <v>145.1400371463127</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.15909392949104</v>
+        <v>98.15909392949098</v>
       </c>
       <c r="C46" t="n">
-        <v>85.57393484618157</v>
+        <v>85.57393484618152</v>
       </c>
       <c r="D46" t="n">
-        <v>66.94258676576609</v>
+        <v>66.94258676576604</v>
       </c>
       <c r="E46" t="n">
-        <v>64.76107639412291</v>
+        <v>64.76107639412285</v>
       </c>
       <c r="F46" t="n">
-        <v>63.74816177048498</v>
+        <v>63.74816177048493</v>
       </c>
       <c r="G46" t="n">
-        <v>85.12006364061004</v>
+        <v>85.12006364060998</v>
       </c>
       <c r="H46" t="n">
-        <v>69.90271518986965</v>
+        <v>69.9027151898696</v>
       </c>
       <c r="I46" t="n">
-        <v>37.7495752970727</v>
+        <v>37.74957529707265</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75274388944553</v>
+        <v>41.75274388944548</v>
       </c>
       <c r="S46" t="n">
-        <v>121.4653255556487</v>
+        <v>121.4653255556486</v>
       </c>
       <c r="T46" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054792</v>
       </c>
       <c r="U46" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422953</v>
       </c>
       <c r="V46" t="n">
         <v>170.4647570713817</v>
@@ -4198,7 +4198,7 @@
         <v>204.8501120841447</v>
       </c>
       <c r="X46" t="n">
-        <v>144.0367691365909</v>
+        <v>144.0367691365908</v>
       </c>
       <c r="Y46" t="n">
         <v>136.9117670996485</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1377.426648643341</v>
+        <v>1118.027015634256</v>
       </c>
       <c r="C11" t="n">
-        <v>1055.186562002445</v>
+        <v>795.7869289933595</v>
       </c>
       <c r="D11" t="n">
-        <v>1055.186562002445</v>
+        <v>484.2436606861247</v>
       </c>
       <c r="E11" t="n">
-        <v>1055.186562002445</v>
+        <v>484.2436606861247</v>
       </c>
       <c r="F11" t="n">
-        <v>690.9230875123528</v>
+        <v>484.2436606861247</v>
       </c>
       <c r="G11" t="n">
-        <v>320.845582123571</v>
+        <v>114.1661552973429</v>
       </c>
       <c r="H11" t="n">
-        <v>52.29280081400536</v>
+        <v>114.1661552973429</v>
       </c>
       <c r="I11" t="n">
         <v>52.29280081400536</v>
       </c>
       <c r="J11" t="n">
-        <v>97.47145817970863</v>
+        <v>264.8771072000615</v>
       </c>
       <c r="K11" t="n">
-        <v>536.82503090357</v>
+        <v>704.2306799239226</v>
       </c>
       <c r="L11" t="n">
-        <v>1134.158615710188</v>
+        <v>888.0796623255948</v>
       </c>
       <c r="M11" t="n">
-        <v>1370.395469982626</v>
+        <v>1124.316516598032</v>
       </c>
       <c r="N11" t="n">
-        <v>1803.192216168431</v>
+        <v>1368.989738529458</v>
       </c>
       <c r="O11" t="n">
-        <v>2397.887119725216</v>
+        <v>1851.392966935573</v>
       </c>
       <c r="P11" t="n">
-        <v>2549.19035716077</v>
+        <v>2321.276925460894</v>
       </c>
       <c r="Q11" t="n">
-        <v>2614.640040700268</v>
+        <v>2596.918449753698</v>
       </c>
       <c r="R11" t="n">
         <v>2614.640040700268</v>
       </c>
       <c r="S11" t="n">
-        <v>2511.706725936939</v>
+        <v>2614.640040700268</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.889340698682</v>
+        <v>2614.640040700268</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.889340698682</v>
+        <v>2614.640040700268</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.889340698682</v>
+        <v>2434.11088000732</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.889340698682</v>
+        <v>2128.064655036722</v>
       </c>
       <c r="X11" t="n">
-        <v>2018.146012737117</v>
+        <v>1801.321327075158</v>
       </c>
       <c r="Y11" t="n">
-        <v>1674.729111060821</v>
+        <v>1457.904425398862</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>192.3236318936952</v>
       </c>
       <c r="H12" t="n">
-        <v>92.89507826601546</v>
+        <v>92.8950782660155</v>
       </c>
       <c r="I12" t="n">
         <v>52.29280081400536</v>
@@ -5121,19 +5121,19 @@
         <v>185.2131776662425</v>
       </c>
       <c r="K12" t="n">
-        <v>277.1955314252075</v>
+        <v>539.0161160676601</v>
       </c>
       <c r="L12" t="n">
-        <v>461.6493763065415</v>
+        <v>737.4715158836696</v>
       </c>
       <c r="M12" t="n">
-        <v>679.3930889194853</v>
+        <v>1384.594925956986</v>
       </c>
       <c r="N12" t="n">
-        <v>1326.516498992802</v>
+        <v>2031.718336030302</v>
       </c>
       <c r="O12" t="n">
-        <v>1911.866497236369</v>
+        <v>2227.144638189908</v>
       </c>
       <c r="P12" t="n">
         <v>2364.658408516852</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.7835323767387</v>
+        <v>537.3357469725358</v>
       </c>
       <c r="C13" t="n">
-        <v>221.7835323767387</v>
+        <v>537.3357469725358</v>
       </c>
       <c r="D13" t="n">
-        <v>126.1991195544078</v>
+        <v>433.9415378597158</v>
       </c>
       <c r="E13" t="n">
-        <v>126.1991195544078</v>
+        <v>332.7508745768383</v>
       </c>
       <c r="F13" t="n">
-        <v>126.1991195544078</v>
+        <v>232.5833573784437</v>
       </c>
       <c r="G13" t="n">
-        <v>126.1991195544078</v>
+        <v>232.5833573784437</v>
       </c>
       <c r="H13" t="n">
-        <v>126.1991195544078</v>
+        <v>126.1991195544079</v>
       </c>
       <c r="I13" t="n">
         <v>52.29280081400536</v>
       </c>
       <c r="J13" t="n">
-        <v>89.51354280696864</v>
+        <v>89.51354280696867</v>
       </c>
       <c r="K13" t="n">
-        <v>251.0567489464904</v>
+        <v>251.0567489464903</v>
       </c>
       <c r="L13" t="n">
-        <v>500.4966927854846</v>
+        <v>500.4966927854845</v>
       </c>
       <c r="M13" t="n">
-        <v>771.3959835616731</v>
+        <v>771.3959835616727</v>
       </c>
       <c r="N13" t="n">
         <v>1042.377358073741</v>
@@ -5221,28 +5221,28 @@
         <v>1526.505307245896</v>
       </c>
       <c r="R13" t="n">
-        <v>1448.555383866734</v>
+        <v>1448.555383866733</v>
       </c>
       <c r="S13" t="n">
-        <v>1448.555383866734</v>
+        <v>1290.087701228779</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.200302794607</v>
+        <v>1111.732620156653</v>
       </c>
       <c r="U13" t="n">
-        <v>1027.777599463071</v>
+        <v>1111.732620156653</v>
       </c>
       <c r="V13" t="n">
-        <v>819.8155415566998</v>
+        <v>1111.732620156653</v>
       </c>
       <c r="W13" t="n">
-        <v>577.1208018192549</v>
+        <v>1027.599050945776</v>
       </c>
       <c r="X13" t="n">
-        <v>395.8536812207532</v>
+        <v>846.3319303472744</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.7835323767387</v>
+        <v>672.26178150326</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.707231060204</v>
+        <v>1738.386231537863</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.467144419308</v>
+        <v>1416.146144896967</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.440215286921</v>
+        <v>1104.602876589732</v>
       </c>
       <c r="E14" t="n">
-        <v>799.3743929881923</v>
+        <v>765.5370542910036</v>
       </c>
       <c r="F14" t="n">
-        <v>435.1109184981003</v>
+        <v>765.5370542910036</v>
       </c>
       <c r="G14" t="n">
-        <v>65.03341310931818</v>
+        <v>395.4595489022215</v>
       </c>
       <c r="H14" t="n">
-        <v>65.03341310931818</v>
+        <v>126.9067675926558</v>
       </c>
       <c r="I14" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2120704750214</v>
+        <v>277.6177194953743</v>
       </c>
       <c r="K14" t="n">
-        <v>524.6771840116008</v>
+        <v>716.9712922192355</v>
       </c>
       <c r="L14" t="n">
-        <v>1122.010768818219</v>
+        <v>1314.304877025854</v>
       </c>
       <c r="M14" t="n">
-        <v>1803.266021248561</v>
+        <v>1649.055456213004</v>
       </c>
       <c r="N14" t="n">
-        <v>2480.912698347851</v>
+        <v>1893.72867814443</v>
       </c>
       <c r="O14" t="n">
-        <v>2698.615422454519</v>
+        <v>2488.423581701215</v>
       </c>
       <c r="P14" t="n">
-        <v>3168.499380979841</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q14" t="n">
         <v>3233.949064519339</v>
@@ -5303,25 +5303,25 @@
         <v>3251.670655465909</v>
       </c>
       <c r="S14" t="n">
-        <v>3148.737340702581</v>
+        <v>3148.73734070258</v>
       </c>
       <c r="T14" t="n">
-        <v>3148.737340702581</v>
+        <v>2981.919955464323</v>
       </c>
       <c r="U14" t="n">
-        <v>2941.791095433269</v>
+        <v>2774.973710195011</v>
       </c>
       <c r="V14" t="n">
-        <v>2941.791095433269</v>
+        <v>2490.633253150956</v>
       </c>
       <c r="W14" t="n">
-        <v>2635.744870462671</v>
+        <v>2184.587028180358</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.001542501107</v>
+        <v>1857.843700218794</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.58464082481</v>
+        <v>1857.843700218794</v>
       </c>
     </row>
     <row r="15">
@@ -5340,37 +5340,37 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E15" t="n">
-        <v>488.8861885749841</v>
+        <v>488.8861885749842</v>
       </c>
       <c r="F15" t="n">
-        <v>342.351630601869</v>
+        <v>342.3516306018691</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0642441890081</v>
+        <v>205.0642441890082</v>
       </c>
       <c r="H15" t="n">
         <v>105.6356905613283</v>
       </c>
       <c r="I15" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J15" t="n">
         <v>197.9537899615553</v>
       </c>
       <c r="K15" t="n">
-        <v>551.756728362973</v>
+        <v>551.7567283629728</v>
       </c>
       <c r="L15" t="n">
         <v>1088.892837324973</v>
       </c>
       <c r="M15" t="n">
-        <v>1306.636549937917</v>
+        <v>1306.636549937916</v>
       </c>
       <c r="N15" t="n">
-        <v>1729.180807372077</v>
+        <v>1544.551935622834</v>
       </c>
       <c r="O15" t="n">
-        <v>1924.607109531682</v>
+        <v>1924.607109531683</v>
       </c>
       <c r="P15" t="n">
         <v>2377.399020812165</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.018519940468</v>
+        <v>794.0454087614273</v>
       </c>
       <c r="C16" t="n">
-        <v>161.8047673120767</v>
+        <v>671.8316561330361</v>
       </c>
       <c r="D16" t="n">
-        <v>138.9397318497207</v>
+        <v>568.4374470202159</v>
       </c>
       <c r="E16" t="n">
-        <v>138.9397318497207</v>
+        <v>467.2467837373384</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9397318497207</v>
+        <v>367.0792665389437</v>
       </c>
       <c r="G16" t="n">
-        <v>138.9397318497207</v>
+        <v>245.3239696737566</v>
       </c>
       <c r="H16" t="n">
-        <v>138.9397318497207</v>
+        <v>138.9397318497208</v>
       </c>
       <c r="I16" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2541551022815</v>
+        <v>102.2541551022814</v>
       </c>
       <c r="K16" t="n">
-        <v>263.7973612418032</v>
+        <v>263.797361241803</v>
       </c>
       <c r="L16" t="n">
-        <v>513.2373050807978</v>
+        <v>513.2373050807971</v>
       </c>
       <c r="M16" t="n">
-        <v>784.1365958569862</v>
+        <v>784.1365958569854</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.117970369054</v>
+        <v>1055.117970369053</v>
       </c>
       <c r="O16" t="n">
-        <v>1292.892560093205</v>
+        <v>1292.892560093204</v>
       </c>
       <c r="P16" t="n">
-        <v>1479.438243771433</v>
+        <v>1479.438243771432</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.245919541209</v>
+        <v>1539.245919541208</v>
       </c>
       <c r="R16" t="n">
-        <v>1461.295996162046</v>
+        <v>1461.295996162045</v>
       </c>
       <c r="S16" t="n">
-        <v>1302.828313524092</v>
+        <v>1302.828313524091</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.473232451966</v>
+        <v>1284.308712734668</v>
       </c>
       <c r="U16" t="n">
-        <v>882.0505291204292</v>
+        <v>1284.308712734668</v>
       </c>
       <c r="V16" t="n">
-        <v>882.0505291204292</v>
+        <v>1284.308712734668</v>
       </c>
       <c r="W16" t="n">
-        <v>639.3557893829842</v>
+        <v>1284.308712734668</v>
       </c>
       <c r="X16" t="n">
-        <v>458.0886687844825</v>
+        <v>1103.041592136166</v>
       </c>
       <c r="Y16" t="n">
-        <v>284.018519940468</v>
+        <v>928.9714432921514</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>1669.536224644592</v>
       </c>
       <c r="C17" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D17" t="n">
-        <v>1159.499578663136</v>
+        <v>1159.499578663137</v>
       </c>
       <c r="E17" t="n">
-        <v>882.307110847745</v>
+        <v>882.3071108477457</v>
       </c>
       <c r="F17" t="n">
-        <v>579.9169908409906</v>
+        <v>579.9169908409913</v>
       </c>
       <c r="G17" t="n">
-        <v>271.7128399355462</v>
+        <v>271.7128399355463</v>
       </c>
       <c r="H17" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="I17" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J17" t="n">
-        <v>277.6177194953745</v>
+        <v>110.2120704750213</v>
       </c>
       <c r="K17" t="n">
-        <v>716.9712922192358</v>
+        <v>228.6616847534293</v>
       </c>
       <c r="L17" t="n">
-        <v>1314.304877025854</v>
+        <v>825.9952695600474</v>
       </c>
       <c r="M17" t="n">
-        <v>1995.560129456196</v>
+        <v>1507.250521990389</v>
       </c>
       <c r="N17" t="n">
-        <v>2422.501239987501</v>
+        <v>2184.897199089679</v>
       </c>
       <c r="O17" t="n">
-        <v>3017.196143544287</v>
+        <v>2779.592102646464</v>
       </c>
       <c r="P17" t="n">
-        <v>3168.499380979841</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q17" t="n">
         <v>3233.949064519339</v>
@@ -5540,25 +5540,25 @@
         <v>3251.670655465909</v>
       </c>
       <c r="S17" t="n">
-        <v>3210.610695185917</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T17" t="n">
         <v>3105.666664430998</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.593773645023</v>
+        <v>2960.593773645025</v>
       </c>
       <c r="V17" t="n">
-        <v>2738.126671084306</v>
+        <v>2738.126671084307</v>
       </c>
       <c r="W17" t="n">
-        <v>2493.953800597045</v>
+        <v>2493.953800597046</v>
       </c>
       <c r="X17" t="n">
         <v>2229.083827118819</v>
       </c>
       <c r="Y17" t="n">
-        <v>1947.54027992586</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E18" t="n">
-        <v>488.8861885749841</v>
+        <v>488.8861885749842</v>
       </c>
       <c r="F18" t="n">
-        <v>342.351630601869</v>
+        <v>342.3516306018691</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0642441890081</v>
+        <v>205.0642441890082</v>
       </c>
       <c r="H18" t="n">
         <v>105.6356905613283</v>
       </c>
       <c r="I18" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J18" t="n">
         <v>197.9537899615553</v>
       </c>
       <c r="K18" t="n">
-        <v>483.1987192035598</v>
+        <v>551.7567283629728</v>
       </c>
       <c r="L18" t="n">
-        <v>653.2028863151352</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M18" t="n">
-        <v>1331.994612040579</v>
+        <v>1624.596381415226</v>
       </c>
       <c r="N18" t="n">
-        <v>2044.458948325615</v>
+        <v>1862.511767100144</v>
       </c>
       <c r="O18" t="n">
-        <v>2239.88525048522</v>
+        <v>2447.861765343711</v>
       </c>
       <c r="P18" t="n">
-        <v>2377.399020812165</v>
+        <v>2585.375535670656</v>
       </c>
       <c r="Q18" t="n">
         <v>2627.380652995581</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.9319273780645</v>
+        <v>360.9319273780648</v>
       </c>
       <c r="C19" t="n">
-        <v>300.5915292330108</v>
+        <v>300.5915292330111</v>
       </c>
       <c r="D19" t="n">
-        <v>259.0706746035283</v>
+        <v>259.0706746035286</v>
       </c>
       <c r="E19" t="n">
-        <v>219.7533658039885</v>
+        <v>219.7533658039887</v>
       </c>
       <c r="F19" t="n">
-        <v>181.4592030889314</v>
+        <v>181.4592030889315</v>
       </c>
       <c r="G19" t="n">
-        <v>121.5772607070813</v>
+        <v>121.5772607070814</v>
       </c>
       <c r="H19" t="n">
-        <v>77.06637736638307</v>
+        <v>77.06637736638315</v>
       </c>
       <c r="I19" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J19" t="n">
-        <v>162.8962298314007</v>
+        <v>162.8962298314006</v>
       </c>
       <c r="K19" t="n">
-        <v>278.6467820343672</v>
+        <v>278.646782034367</v>
       </c>
       <c r="L19" t="n">
-        <v>482.2940719368062</v>
+        <v>482.2940719368058</v>
       </c>
       <c r="M19" t="n">
-        <v>707.4007087764394</v>
+        <v>723.8137924621868</v>
       </c>
       <c r="N19" t="n">
-        <v>949.002513037698</v>
+        <v>1055.437241703374</v>
       </c>
       <c r="O19" t="n">
-        <v>1140.984448825294</v>
+        <v>1247.419177490969</v>
       </c>
       <c r="P19" t="n">
-        <v>1281.737478566967</v>
+        <v>1388.172207232642</v>
       </c>
       <c r="Q19" t="n">
-        <v>1402.187229065862</v>
+        <v>1402.187229065863</v>
       </c>
       <c r="R19" t="n">
-        <v>1386.110660170037</v>
+        <v>1386.110660170038</v>
       </c>
       <c r="S19" t="n">
-        <v>1289.51633201542</v>
+        <v>1289.516332015421</v>
       </c>
       <c r="T19" t="n">
         <v>1173.034605426632</v>
       </c>
       <c r="U19" t="n">
-        <v>992.4852565784329</v>
+        <v>992.4852565784335</v>
       </c>
       <c r="V19" t="n">
-        <v>846.3965531553993</v>
+        <v>846.3965531553997</v>
       </c>
       <c r="W19" t="n">
-        <v>665.5751679012919</v>
+        <v>665.5751679012923</v>
       </c>
       <c r="X19" t="n">
-        <v>546.1814017861278</v>
+        <v>546.1814017861282</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.9846074254509</v>
+        <v>433.9846074254513</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>1669.536224644592</v>
       </c>
       <c r="C20" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D20" t="n">
-        <v>1159.499578663136</v>
+        <v>1159.499578663137</v>
       </c>
       <c r="E20" t="n">
-        <v>882.3071108477452</v>
+        <v>882.3071108477449</v>
       </c>
       <c r="F20" t="n">
-        <v>579.9169908409908</v>
+        <v>579.9169908409906</v>
       </c>
       <c r="G20" t="n">
         <v>271.7128399355462</v>
       </c>
       <c r="H20" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="I20" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2120704750214</v>
+        <v>277.6177194953744</v>
       </c>
       <c r="K20" t="n">
-        <v>314.4853432582951</v>
+        <v>396.0673337737825</v>
       </c>
       <c r="L20" t="n">
-        <v>911.8189280649135</v>
+        <v>993.4009185804007</v>
       </c>
       <c r="M20" t="n">
-        <v>1593.074180495255</v>
+        <v>1674.656171010742</v>
       </c>
       <c r="N20" t="n">
-        <v>2270.720857594546</v>
+        <v>2352.302848110032</v>
       </c>
       <c r="O20" t="n">
-        <v>2488.423581701213</v>
+        <v>2570.005572216699</v>
       </c>
       <c r="P20" t="n">
-        <v>2958.307540226535</v>
+        <v>3039.889530742021</v>
       </c>
       <c r="Q20" t="n">
         <v>3233.949064519339</v>
@@ -5777,10 +5777,10 @@
         <v>3251.670655465909</v>
       </c>
       <c r="S20" t="n">
-        <v>3210.610695185917</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.666664430997</v>
+        <v>3105.666664430998</v>
       </c>
       <c r="U20" t="n">
         <v>2960.593773645024</v>
@@ -5814,40 +5814,40 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E21" t="n">
-        <v>488.8861885749841</v>
+        <v>488.8861885749842</v>
       </c>
       <c r="F21" t="n">
-        <v>342.351630601869</v>
+        <v>342.3516306018691</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0642441890081</v>
+        <v>205.0642441890082</v>
       </c>
       <c r="H21" t="n">
         <v>105.6356905613283</v>
       </c>
       <c r="I21" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J21" t="n">
-        <v>197.9537899615553</v>
+        <v>73.12366497455058</v>
       </c>
       <c r="K21" t="n">
-        <v>551.756728362973</v>
+        <v>426.9266033759682</v>
       </c>
       <c r="L21" t="n">
-        <v>721.7608954745484</v>
+        <v>964.0627123379682</v>
       </c>
       <c r="M21" t="n">
-        <v>1150.047430815107</v>
+        <v>1491.26542168716</v>
       </c>
       <c r="N21" t="n">
-        <v>1862.511767100143</v>
+        <v>1729.180807372077</v>
       </c>
       <c r="O21" t="n">
-        <v>2447.861765343711</v>
+        <v>1924.607109531683</v>
       </c>
       <c r="P21" t="n">
-        <v>2585.375535670656</v>
+        <v>2377.399020812165</v>
       </c>
       <c r="Q21" t="n">
         <v>2627.380652995581</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.9319273780645</v>
+        <v>360.9319273780644</v>
       </c>
       <c r="C22" t="n">
         <v>300.5915292330108</v>
@@ -5893,40 +5893,40 @@
         <v>259.0706746035283</v>
       </c>
       <c r="E22" t="n">
-        <v>219.7533658039885</v>
+        <v>219.7533658039884</v>
       </c>
       <c r="F22" t="n">
-        <v>181.4592030889314</v>
+        <v>181.4592030889313</v>
       </c>
       <c r="G22" t="n">
         <v>121.5772607070813</v>
       </c>
       <c r="H22" t="n">
-        <v>77.06637736638307</v>
+        <v>77.06637736638308</v>
       </c>
       <c r="I22" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J22" t="n">
         <v>162.8962298314007</v>
       </c>
       <c r="K22" t="n">
-        <v>278.6467820343672</v>
+        <v>278.6467820343671</v>
       </c>
       <c r="L22" t="n">
-        <v>482.2940719368062</v>
+        <v>498.7071556225526</v>
       </c>
       <c r="M22" t="n">
-        <v>707.4007087764394</v>
+        <v>723.8137924621857</v>
       </c>
       <c r="N22" t="n">
-        <v>1039.024158017626</v>
+        <v>949.002513037698</v>
       </c>
       <c r="O22" t="n">
-        <v>1231.006093805222</v>
+        <v>1140.984448825294</v>
       </c>
       <c r="P22" t="n">
-        <v>1371.759123546895</v>
+        <v>1388.172207232641</v>
       </c>
       <c r="Q22" t="n">
         <v>1402.187229065862</v>
@@ -5947,10 +5947,10 @@
         <v>846.3965531553993</v>
       </c>
       <c r="W22" t="n">
-        <v>665.5751679012919</v>
+        <v>665.5751679012918</v>
       </c>
       <c r="X22" t="n">
-        <v>546.1814017861278</v>
+        <v>546.1814017861277</v>
       </c>
       <c r="Y22" t="n">
         <v>433.9846074254509</v>
@@ -5966,70 +5966,70 @@
         <v>1669.536224644592</v>
       </c>
       <c r="C23" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D23" t="n">
-        <v>1159.499578663136</v>
+        <v>1159.499578663137</v>
       </c>
       <c r="E23" t="n">
-        <v>882.3071108477452</v>
+        <v>882.3071108477455</v>
       </c>
       <c r="F23" t="n">
-        <v>579.9169908409908</v>
+        <v>579.9169908409913</v>
       </c>
       <c r="G23" t="n">
         <v>271.7128399355462</v>
       </c>
       <c r="H23" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="I23" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J23" t="n">
-        <v>277.6177194953745</v>
+        <v>277.6177194953744</v>
       </c>
       <c r="K23" t="n">
-        <v>716.9712922192358</v>
+        <v>716.9712922192355</v>
       </c>
       <c r="L23" t="n">
         <v>1314.304877025854</v>
       </c>
       <c r="M23" t="n">
-        <v>1995.560129456196</v>
+        <v>1550.541731298291</v>
       </c>
       <c r="N23" t="n">
-        <v>2673.206806555486</v>
+        <v>1893.728678144429</v>
       </c>
       <c r="O23" t="n">
-        <v>2890.909530662154</v>
+        <v>2488.423581701214</v>
       </c>
       <c r="P23" t="n">
-        <v>3042.212768097708</v>
+        <v>2958.307540226535</v>
       </c>
       <c r="Q23" t="n">
-        <v>3251.670655465909</v>
+        <v>3233.949064519339</v>
       </c>
       <c r="R23" t="n">
         <v>3251.670655465909</v>
       </c>
       <c r="S23" t="n">
-        <v>3210.610695185917</v>
+        <v>3210.610695185918</v>
       </c>
       <c r="T23" t="n">
         <v>3105.666664430998</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.593773645024</v>
+        <v>2960.593773645025</v>
       </c>
       <c r="V23" t="n">
         <v>2738.126671084307</v>
       </c>
       <c r="W23" t="n">
-        <v>2493.953800597046</v>
+        <v>2493.953800597047</v>
       </c>
       <c r="X23" t="n">
-        <v>2229.083827118819</v>
+        <v>2229.08382711882</v>
       </c>
       <c r="Y23" t="n">
         <v>1947.540279925861</v>
@@ -6051,37 +6051,37 @@
         <v>648.1236435804396</v>
       </c>
       <c r="E24" t="n">
-        <v>488.8861885749841</v>
+        <v>488.8861885749842</v>
       </c>
       <c r="F24" t="n">
-        <v>342.351630601869</v>
+        <v>342.3516306018691</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0642441890081</v>
+        <v>205.0642441890082</v>
       </c>
       <c r="H24" t="n">
         <v>105.6356905613283</v>
       </c>
       <c r="I24" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J24" t="n">
-        <v>73.12366497455062</v>
+        <v>197.9537899615553</v>
       </c>
       <c r="K24" t="n">
-        <v>165.1060187335156</v>
+        <v>551.7567283629729</v>
       </c>
       <c r="L24" t="n">
-        <v>702.2421276955156</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M24" t="n">
-        <v>1381.033853420959</v>
+        <v>1306.636549937916</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.535252241652</v>
+        <v>1544.551935622834</v>
       </c>
       <c r="O24" t="n">
-        <v>2239.88525048522</v>
+        <v>1924.607109531683</v>
       </c>
       <c r="P24" t="n">
         <v>2377.399020812165</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.9319273780645</v>
+        <v>360.9319273780644</v>
       </c>
       <c r="C25" t="n">
         <v>300.5915292330108</v>
@@ -6130,40 +6130,40 @@
         <v>259.0706746035283</v>
       </c>
       <c r="E25" t="n">
-        <v>219.7533658039885</v>
+        <v>219.7533658039884</v>
       </c>
       <c r="F25" t="n">
-        <v>181.4592030889314</v>
+        <v>181.4592030889313</v>
       </c>
       <c r="G25" t="n">
         <v>121.5772607070813</v>
       </c>
       <c r="H25" t="n">
-        <v>77.06637736638307</v>
+        <v>77.06637736638308</v>
       </c>
       <c r="I25" t="n">
-        <v>65.03341310931818</v>
+        <v>65.03341310931819</v>
       </c>
       <c r="J25" t="n">
-        <v>65.03341310931818</v>
+        <v>162.8962298314007</v>
       </c>
       <c r="K25" t="n">
-        <v>180.7839653122847</v>
+        <v>278.6467820343671</v>
       </c>
       <c r="L25" t="n">
-        <v>490.8659838803981</v>
+        <v>482.2940719368059</v>
       </c>
       <c r="M25" t="n">
-        <v>715.9726207200313</v>
+        <v>707.400708776439</v>
       </c>
       <c r="N25" t="n">
-        <v>941.1613412955437</v>
+        <v>932.5894293519514</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.578005748814</v>
+        <v>1140.984448825294</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.331035490487</v>
+        <v>1388.172207232641</v>
       </c>
       <c r="Q25" t="n">
         <v>1402.187229065862</v>
@@ -6184,10 +6184,10 @@
         <v>846.3965531553993</v>
       </c>
       <c r="W25" t="n">
-        <v>665.5751679012919</v>
+        <v>665.5751679012918</v>
       </c>
       <c r="X25" t="n">
-        <v>546.1814017861278</v>
+        <v>546.1814017861277</v>
       </c>
       <c r="Y25" t="n">
         <v>433.9846074254509</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.210822961705</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C26" t="n">
-        <v>1573.746170922754</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D26" t="n">
         <v>1297.978337217464</v>
       </c>
       <c r="E26" t="n">
-        <v>994.6879495206803</v>
+        <v>994.6879495206801</v>
       </c>
       <c r="F26" t="n">
         <v>666.1999096325335</v>
@@ -6218,58 +6218,58 @@
         <v>331.8978388456967</v>
       </c>
       <c r="H26" t="n">
-        <v>99.12049213807556</v>
+        <v>99.12049213807552</v>
       </c>
       <c r="I26" t="n">
-        <v>73.02257225668322</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J26" t="n">
-        <v>285.6068786427395</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K26" t="n">
-        <v>724.9604513666009</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L26" t="n">
         <v>1322.294036173219</v>
       </c>
       <c r="M26" t="n">
-        <v>2003.549288603561</v>
+        <v>2003.54928860356</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.195965702851</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O26" t="n">
-        <v>3275.890869259637</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P26" t="n">
-        <v>3567.957338348092</v>
+        <v>3357.765497594785</v>
       </c>
       <c r="Q26" t="n">
-        <v>3633.40702188759</v>
+        <v>3633.407021887589</v>
       </c>
       <c r="R26" t="n">
-        <v>3651.128612834161</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S26" t="n">
-        <v>3583.970732672777</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T26" t="n">
-        <v>3452.928782036465</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U26" t="n">
-        <v>3281.757971369099</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V26" t="n">
-        <v>3033.192948926989</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W26" t="n">
-        <v>2762.922158558336</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X26" t="n">
-        <v>2471.954265198717</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y26" t="n">
-        <v>2164.312798124366</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I27" t="n">
-        <v>73.02257225668322</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J27" t="n">
-        <v>205.9429491089204</v>
+        <v>205.9429491089203</v>
       </c>
       <c r="K27" t="n">
-        <v>559.7458875103382</v>
+        <v>559.745887510338</v>
       </c>
       <c r="L27" t="n">
         <v>1096.881996472338</v>
       </c>
       <c r="M27" t="n">
-        <v>1632.585540562591</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N27" t="n">
-        <v>1870.500926247508</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O27" t="n">
-        <v>2455.850924491076</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P27" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.369812142946</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C28" t="n">
-        <v>465.1682076687303</v>
+        <v>465.1682076687302</v>
       </c>
       <c r="D28" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578553</v>
       </c>
       <c r="E28" t="n">
         <v>332.1342044769231</v>
       </c>
       <c r="F28" t="n">
-        <v>267.7421218804735</v>
+        <v>267.7421218804736</v>
       </c>
       <c r="G28" t="n">
-        <v>181.7622596172309</v>
+        <v>181.7622596172312</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1534563951406</v>
+        <v>111.1534563951405</v>
       </c>
       <c r="I28" t="n">
-        <v>73.02257225668322</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J28" t="n">
         <v>145.306817703013</v>
       </c>
       <c r="K28" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L28" t="n">
         <v>626.4169745882618</v>
@@ -6397,10 +6397,10 @@
         <v>1238.424646783251</v>
       </c>
       <c r="O28" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P28" t="n">
-        <v>1732.871927092364</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q28" t="n">
         <v>1827.743106315506</v>
@@ -6427,7 +6427,7 @@
         <v>789.0518398660245</v>
       </c>
       <c r="Y28" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C29" t="n">
         <v>1573.746170922753</v>
@@ -6446,67 +6446,67 @@
         <v>1297.978337217463</v>
       </c>
       <c r="E29" t="n">
-        <v>994.6879495206797</v>
+        <v>994.6879495206795</v>
       </c>
       <c r="F29" t="n">
-        <v>666.199909632533</v>
+        <v>666.1999096325328</v>
       </c>
       <c r="G29" t="n">
-        <v>331.8978388456962</v>
+        <v>331.897838845696</v>
       </c>
       <c r="H29" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807552</v>
       </c>
       <c r="I29" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J29" t="n">
         <v>285.6068786427394</v>
       </c>
       <c r="K29" t="n">
-        <v>724.9604513666006</v>
+        <v>404.0564929211475</v>
       </c>
       <c r="L29" t="n">
-        <v>1322.294036173219</v>
+        <v>1001.390077727766</v>
       </c>
       <c r="M29" t="n">
-        <v>1633.26154935996</v>
+        <v>1682.645330158108</v>
       </c>
       <c r="N29" t="n">
-        <v>2310.90822645925</v>
+        <v>2360.292007257398</v>
       </c>
       <c r="O29" t="n">
-        <v>2905.603130016035</v>
+        <v>2905.603130016034</v>
       </c>
       <c r="P29" t="n">
-        <v>3375.487088541356</v>
+        <v>3375.487088541355</v>
       </c>
       <c r="Q29" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="R29" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S29" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T29" t="n">
         <v>3452.928782036463</v>
       </c>
       <c r="U29" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V29" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X29" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y29" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I30" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J30" t="n">
         <v>205.9429491089203</v>
@@ -6546,19 +6546,19 @@
         <v>559.745887510338</v>
       </c>
       <c r="L30" t="n">
-        <v>729.7500546219133</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M30" t="n">
-        <v>947.4937672348569</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N30" t="n">
-        <v>1555.22278529397</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O30" t="n">
-        <v>2140.572783537538</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P30" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q30" t="n">
         <v>2635.369812142946</v>
@@ -6610,25 +6610,25 @@
         <v>267.7421218804735</v>
       </c>
       <c r="G31" t="n">
-        <v>181.7622596172311</v>
+        <v>181.762259617231</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I31" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J31" t="n">
-        <v>145.3068177030127</v>
+        <v>145.306817703013</v>
       </c>
       <c r="K31" t="n">
-        <v>341.9135272959008</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L31" t="n">
-        <v>626.4169745882616</v>
+        <v>626.4169745882618</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3797688178164</v>
+        <v>932.3797688178166</v>
       </c>
       <c r="N31" t="n">
         <v>1238.424646783251</v>
@@ -6643,25 +6643,25 @@
         <v>1827.743106315506</v>
       </c>
       <c r="R31" t="n">
-        <v>1785.568617538287</v>
+        <v>1785.568617538288</v>
       </c>
       <c r="S31" t="n">
-        <v>1662.876369502278</v>
+        <v>1662.876369502279</v>
       </c>
       <c r="T31" t="n">
         <v>1520.296723032098</v>
       </c>
       <c r="U31" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V31" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W31" t="n">
-        <v>934.5435258625806</v>
+        <v>934.5435258625807</v>
       </c>
       <c r="X31" t="n">
-        <v>789.0518398660241</v>
+        <v>789.0518398660242</v>
       </c>
       <c r="Y31" t="n">
         <v>650.7571256239552</v>
@@ -6677,22 +6677,22 @@
         <v>1860.210822961702</v>
       </c>
       <c r="C32" t="n">
-        <v>1573.746170922751</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D32" t="n">
-        <v>1297.978337217461</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E32" t="n">
-        <v>994.6879495206776</v>
+        <v>994.6879495206786</v>
       </c>
       <c r="F32" t="n">
-        <v>666.199909632531</v>
+        <v>666.1999096325319</v>
       </c>
       <c r="G32" t="n">
-        <v>331.8978388456953</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H32" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807555</v>
       </c>
       <c r="I32" t="n">
         <v>73.0225722566832</v>
@@ -6701,25 +6701,25 @@
         <v>285.6068786427394</v>
       </c>
       <c r="K32" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L32" t="n">
-        <v>952.0062969296179</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M32" t="n">
-        <v>1633.26154935996</v>
+        <v>1615.539958413389</v>
       </c>
       <c r="N32" t="n">
-        <v>2310.90822645925</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O32" t="n">
-        <v>2905.603130016035</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P32" t="n">
-        <v>3375.487088541356</v>
+        <v>3357.765497594786</v>
       </c>
       <c r="Q32" t="n">
-        <v>3651.12861283416</v>
+        <v>3633.40702188759</v>
       </c>
       <c r="R32" t="n">
         <v>3651.12861283416</v>
@@ -6731,19 +6731,19 @@
         <v>3452.928782036463</v>
       </c>
       <c r="U32" t="n">
-        <v>3281.757971369096</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V32" t="n">
-        <v>3033.192948926986</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W32" t="n">
-        <v>2762.922158558333</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X32" t="n">
         <v>2471.954265198714</v>
       </c>
       <c r="Y32" t="n">
-        <v>2164.312798124362</v>
+        <v>2164.312798124363</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>205.9429491089203</v>
       </c>
       <c r="K33" t="n">
-        <v>297.9253028678852</v>
+        <v>559.745887510338</v>
       </c>
       <c r="L33" t="n">
-        <v>835.0614118298851</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M33" t="n">
-        <v>1513.853137555329</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N33" t="n">
-        <v>1751.768523240246</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O33" t="n">
-        <v>2337.118521483814</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P33" t="n">
-        <v>2474.632291810759</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.369812142946</v>
@@ -6844,7 +6844,7 @@
         <v>332.1342044769232</v>
       </c>
       <c r="F34" t="n">
-        <v>267.7421218804736</v>
+        <v>267.7421218804737</v>
       </c>
       <c r="G34" t="n">
         <v>181.7622596172312</v>
@@ -6859,34 +6859,34 @@
         <v>145.306817703013</v>
       </c>
       <c r="K34" t="n">
-        <v>341.9135272959012</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L34" t="n">
-        <v>626.4169745882621</v>
+        <v>626.416974588262</v>
       </c>
       <c r="M34" t="n">
-        <v>932.3797688178169</v>
+        <v>932.3797688178167</v>
       </c>
       <c r="N34" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O34" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P34" t="n">
         <v>1732.871927092363</v>
       </c>
       <c r="Q34" t="n">
-        <v>1827.743106315506</v>
+        <v>1827.743106315505</v>
       </c>
       <c r="R34" t="n">
-        <v>1785.568617538288</v>
+        <v>1785.568617538287</v>
       </c>
       <c r="S34" t="n">
         <v>1662.876369502279</v>
       </c>
       <c r="T34" t="n">
-        <v>1520.296723032098</v>
+        <v>1520.296723032097</v>
       </c>
       <c r="U34" t="n">
         <v>1313.649454302507</v>
@@ -6895,10 +6895,10 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W34" t="n">
-        <v>934.5435258625807</v>
+        <v>934.5435258625809</v>
       </c>
       <c r="X34" t="n">
-        <v>789.0518398660242</v>
+        <v>789.0518398660244</v>
       </c>
       <c r="Y34" t="n">
         <v>650.7571256239553</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C35" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D35" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E35" t="n">
-        <v>994.6879495206797</v>
+        <v>994.6879495206792</v>
       </c>
       <c r="F35" t="n">
-        <v>666.199909632533</v>
+        <v>666.1999096325326</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H35" t="n">
-        <v>99.12049213807555</v>
+        <v>99.12049213807549</v>
       </c>
       <c r="I35" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J35" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K35" t="n">
-        <v>354.6727121229997</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L35" t="n">
-        <v>952.0062969296179</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M35" t="n">
-        <v>1633.26154935996</v>
+        <v>1615.539958413387</v>
       </c>
       <c r="N35" t="n">
-        <v>2310.90822645925</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O35" t="n">
-        <v>2905.603130016035</v>
+        <v>2887.881539069463</v>
       </c>
       <c r="P35" t="n">
-        <v>3375.487088541357</v>
+        <v>3357.765497594784</v>
       </c>
       <c r="Q35" t="n">
-        <v>3651.12861283416</v>
+        <v>3633.407021887588</v>
       </c>
       <c r="R35" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S35" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672774</v>
       </c>
       <c r="T35" t="n">
         <v>3452.928782036463</v>
       </c>
       <c r="U35" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V35" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W35" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X35" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y35" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I36" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J36" t="n">
         <v>205.9429491089203</v>
@@ -7020,13 +7020,13 @@
         <v>559.745887510338</v>
       </c>
       <c r="L36" t="n">
-        <v>729.7500546219133</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M36" t="n">
-        <v>947.4937672348569</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N36" t="n">
-        <v>1347.24627043548</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O36" t="n">
         <v>1932.596268679048</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.6065256951763</v>
+        <v>551.6065256951761</v>
       </c>
       <c r="C37" t="n">
-        <v>465.1682076687302</v>
+        <v>465.16820766873</v>
       </c>
       <c r="D37" t="n">
-        <v>397.5494331578553</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E37" t="n">
-        <v>332.1342044769231</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F37" t="n">
         <v>267.7421218804735</v>
@@ -7087,16 +7087,16 @@
         <v>181.762259617231</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I37" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J37" t="n">
         <v>145.306817703013</v>
       </c>
       <c r="K37" t="n">
-        <v>341.9135272959014</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L37" t="n">
         <v>626.416974588262</v>
@@ -7108,7 +7108,7 @@
         <v>1238.424646783251</v>
       </c>
       <c r="O37" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P37" t="n">
         <v>1732.871927092363</v>
@@ -7126,19 +7126,19 @@
         <v>1520.296723032098</v>
       </c>
       <c r="U37" t="n">
-        <v>1313.649454302507</v>
+        <v>1313.649454302506</v>
       </c>
       <c r="V37" t="n">
-        <v>1141.462830998081</v>
+        <v>1141.46283099808</v>
       </c>
       <c r="W37" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625805</v>
       </c>
       <c r="X37" t="n">
-        <v>789.0518398660245</v>
+        <v>789.051839866024</v>
       </c>
       <c r="Y37" t="n">
-        <v>650.7571256239552</v>
+        <v>650.7571256239548</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D38" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E38" t="n">
-        <v>994.6879495206798</v>
+        <v>994.6879495206788</v>
       </c>
       <c r="F38" t="n">
-        <v>666.199909632533</v>
+        <v>666.1999096325324</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456953</v>
       </c>
       <c r="H38" t="n">
-        <v>99.12049213807555</v>
+        <v>99.12049213807551</v>
       </c>
       <c r="I38" t="n">
         <v>73.02257225668319</v>
       </c>
       <c r="J38" t="n">
-        <v>118.2012296223864</v>
+        <v>285.6068786427394</v>
       </c>
       <c r="K38" t="n">
-        <v>557.5548023462476</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L38" t="n">
-        <v>1154.888387152866</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M38" t="n">
         <v>1615.539958413388</v>
@@ -7199,25 +7199,25 @@
         <v>3651.128612834159</v>
       </c>
       <c r="S38" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T38" t="n">
         <v>3452.928782036463</v>
       </c>
       <c r="U38" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V38" t="n">
-        <v>3033.192948926989</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W38" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X38" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y38" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>73.02257225668319</v>
       </c>
       <c r="J39" t="n">
-        <v>81.11282412191559</v>
+        <v>205.9429491089203</v>
       </c>
       <c r="K39" t="n">
-        <v>173.0951778808804</v>
+        <v>559.745887510338</v>
       </c>
       <c r="L39" t="n">
-        <v>479.2448642370293</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.036589962473</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N39" t="n">
-        <v>1870.500926247508</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O39" t="n">
-        <v>2455.850924491076</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P39" t="n">
-        <v>2593.364694818021</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.369812142946</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.6065256951765</v>
+        <v>551.6065256951761</v>
       </c>
       <c r="C40" t="n">
-        <v>465.1682076687304</v>
+        <v>465.1682076687301</v>
       </c>
       <c r="D40" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E40" t="n">
-        <v>332.1342044769232</v>
+        <v>332.134204476923</v>
       </c>
       <c r="F40" t="n">
-        <v>267.7421218804736</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G40" t="n">
-        <v>181.7622596172311</v>
+        <v>181.762259617231</v>
       </c>
       <c r="H40" t="n">
         <v>111.1534563951405</v>
@@ -7330,52 +7330,52 @@
         <v>73.02257225668319</v>
       </c>
       <c r="J40" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030127</v>
       </c>
       <c r="K40" t="n">
-        <v>341.9135272959019</v>
+        <v>341.913527295901</v>
       </c>
       <c r="L40" t="n">
-        <v>626.4169745882625</v>
+        <v>626.4169745882616</v>
       </c>
       <c r="M40" t="n">
-        <v>932.3797688178173</v>
+        <v>932.3797688178165</v>
       </c>
       <c r="N40" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O40" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P40" t="n">
-        <v>1732.871927092364</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q40" t="n">
-        <v>1827.743106315506</v>
+        <v>1827.743106315505</v>
       </c>
       <c r="R40" t="n">
         <v>1785.568617538288</v>
       </c>
       <c r="S40" t="n">
-        <v>1662.87636950228</v>
+        <v>1662.876369502279</v>
       </c>
       <c r="T40" t="n">
         <v>1520.296723032098</v>
       </c>
       <c r="U40" t="n">
-        <v>1313.649454302507</v>
+        <v>1313.649454302506</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.462830998081</v>
+        <v>1141.46283099808</v>
       </c>
       <c r="W40" t="n">
-        <v>934.5435258625812</v>
+        <v>934.5435258625805</v>
       </c>
       <c r="X40" t="n">
-        <v>789.0518398660247</v>
+        <v>789.051839866024</v>
       </c>
       <c r="Y40" t="n">
-        <v>650.7571256239554</v>
+        <v>650.7571256239548</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C41" t="n">
-        <v>1573.746170922752</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D41" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E41" t="n">
-        <v>994.6879495206792</v>
+        <v>994.6879495206797</v>
       </c>
       <c r="F41" t="n">
-        <v>666.1999096325326</v>
+        <v>666.199909632533</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8978388456958</v>
+        <v>331.8978388456962</v>
       </c>
       <c r="H41" t="n">
-        <v>99.12049213807549</v>
+        <v>99.12049213807552</v>
       </c>
       <c r="I41" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J41" t="n">
         <v>285.6068786427394</v>
       </c>
       <c r="K41" t="n">
-        <v>713.9433006265466</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L41" t="n">
-        <v>1311.276885433165</v>
+        <v>934.2847059830467</v>
       </c>
       <c r="M41" t="n">
-        <v>1992.532137863507</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N41" t="n">
-        <v>2670.178814962797</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O41" t="n">
         <v>2887.881539069464</v>
@@ -7442,13 +7442,13 @@
         <v>3452.928782036463</v>
       </c>
       <c r="U41" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V41" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W41" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X41" t="n">
         <v>2471.954265198715</v>
@@ -7485,28 +7485,28 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I42" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J42" t="n">
-        <v>81.11282412191559</v>
+        <v>205.9429491089203</v>
       </c>
       <c r="K42" t="n">
-        <v>434.9157625233333</v>
+        <v>559.745887510338</v>
       </c>
       <c r="L42" t="n">
-        <v>972.0518714853331</v>
+        <v>1096.881996472338</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.795584098277</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N42" t="n">
-        <v>1902.259920383312</v>
+        <v>1552.541094770199</v>
       </c>
       <c r="O42" t="n">
-        <v>2097.686222542918</v>
+        <v>1932.596268679048</v>
       </c>
       <c r="P42" t="n">
-        <v>2550.478133823401</v>
+        <v>2385.388179959531</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.369812142946</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.6065256951756</v>
+        <v>551.6065256951762</v>
       </c>
       <c r="C43" t="n">
-        <v>465.1682076687295</v>
+        <v>465.1682076687301</v>
       </c>
       <c r="D43" t="n">
-        <v>397.5494331578547</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E43" t="n">
-        <v>332.1342044769224</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F43" t="n">
-        <v>267.742121880473</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G43" t="n">
-        <v>181.7622596172305</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H43" t="n">
         <v>111.1534563951405</v>
       </c>
       <c r="I43" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J43" t="n">
-        <v>145.3068177030129</v>
+        <v>145.3068177030128</v>
       </c>
       <c r="K43" t="n">
-        <v>341.9135272959011</v>
+        <v>341.913527295901</v>
       </c>
       <c r="L43" t="n">
         <v>626.4169745882618</v>
@@ -7591,13 +7591,13 @@
         <v>1827.743106315505</v>
       </c>
       <c r="R43" t="n">
-        <v>1785.568617538287</v>
+        <v>1785.568617538288</v>
       </c>
       <c r="S43" t="n">
         <v>1662.876369502279</v>
       </c>
       <c r="T43" t="n">
-        <v>1520.296723032097</v>
+        <v>1520.296723032098</v>
       </c>
       <c r="U43" t="n">
         <v>1313.649454302506</v>
@@ -7606,13 +7606,13 @@
         <v>1141.46283099808</v>
       </c>
       <c r="W43" t="n">
-        <v>934.5435258625801</v>
+        <v>934.5435258625809</v>
       </c>
       <c r="X43" t="n">
-        <v>789.0518398660236</v>
+        <v>789.0518398660244</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.7571256239544</v>
+        <v>650.7571256239551</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1297.978337217462</v>
       </c>
       <c r="E44" t="n">
-        <v>994.687949520679</v>
+        <v>994.6879495206795</v>
       </c>
       <c r="F44" t="n">
-        <v>666.1999096325326</v>
+        <v>666.1999096325327</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8978388456958</v>
+        <v>331.897838845696</v>
       </c>
       <c r="H44" t="n">
-        <v>99.12049213807549</v>
+        <v>99.12049213807543</v>
       </c>
       <c r="I44" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J44" t="n">
         <v>285.6068786427394</v>
       </c>
       <c r="K44" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666005</v>
       </c>
       <c r="L44" t="n">
         <v>1322.294036173219</v>
       </c>
       <c r="M44" t="n">
-        <v>2003.549288603561</v>
+        <v>1633.261549359959</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.195965702851</v>
+        <v>2310.908226459249</v>
       </c>
       <c r="O44" t="n">
-        <v>3206.462260159232</v>
+        <v>2905.603130016034</v>
       </c>
       <c r="P44" t="n">
-        <v>3357.765497594785</v>
+        <v>3375.487088541355</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.407021887589</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="R44" t="n">
         <v>3651.128612834159</v>
@@ -7688,7 +7688,7 @@
         <v>2762.922158558334</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.954265198714</v>
+        <v>2471.954265198715</v>
       </c>
       <c r="Y44" t="n">
         <v>2164.312798124364</v>
@@ -7722,25 +7722,25 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I45" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J45" t="n">
-        <v>81.11282412191559</v>
+        <v>81.11282412191557</v>
       </c>
       <c r="K45" t="n">
-        <v>434.9157625233333</v>
+        <v>173.0951778808804</v>
       </c>
       <c r="L45" t="n">
-        <v>972.0518714853331</v>
+        <v>710.2312868428803</v>
       </c>
       <c r="M45" t="n">
-        <v>1650.843597210777</v>
+        <v>1389.023012568324</v>
       </c>
       <c r="N45" t="n">
-        <v>1888.758982895694</v>
+        <v>1870.500926247509</v>
       </c>
       <c r="O45" t="n">
-        <v>2140.572783537538</v>
+        <v>2455.850924491077</v>
       </c>
       <c r="P45" t="n">
         <v>2593.364694818021</v>
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.6065256951761</v>
+        <v>551.6065256951756</v>
       </c>
       <c r="C46" t="n">
-        <v>465.1682076687301</v>
+        <v>465.1682076687297</v>
       </c>
       <c r="D46" t="n">
-        <v>397.5494331578552</v>
+        <v>397.5494331578549</v>
       </c>
       <c r="E46" t="n">
-        <v>332.134204476923</v>
+        <v>332.1342044769227</v>
       </c>
       <c r="F46" t="n">
-        <v>267.7421218804735</v>
+        <v>267.7421218804733</v>
       </c>
       <c r="G46" t="n">
-        <v>181.762259617231</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I46" t="n">
-        <v>73.02257225668319</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J46" t="n">
         <v>145.3068177030131</v>
       </c>
       <c r="K46" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272958998</v>
       </c>
       <c r="L46" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882605</v>
       </c>
       <c r="M46" t="n">
-        <v>932.3797688178169</v>
+        <v>932.3797688178154</v>
       </c>
       <c r="N46" t="n">
-        <v>1238.424646783251</v>
+        <v>1238.42464678325</v>
       </c>
       <c r="O46" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960767</v>
       </c>
       <c r="P46" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092362</v>
       </c>
       <c r="Q46" t="n">
         <v>1827.743106315505</v>
       </c>
       <c r="R46" t="n">
-        <v>1785.568617538288</v>
+        <v>1785.568617538287</v>
       </c>
       <c r="S46" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.876369502278</v>
       </c>
       <c r="T46" t="n">
-        <v>1520.296723032098</v>
+        <v>1520.296723032097</v>
       </c>
       <c r="U46" t="n">
         <v>1313.649454302506</v>
@@ -7843,13 +7843,13 @@
         <v>1141.46283099808</v>
       </c>
       <c r="W46" t="n">
-        <v>934.5435258625805</v>
+        <v>934.5435258625799</v>
       </c>
       <c r="X46" t="n">
-        <v>789.051839866024</v>
+        <v>789.0518398660236</v>
       </c>
       <c r="Y46" t="n">
-        <v>650.7571256239548</v>
+        <v>650.7571256239544</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>190.0237618731097</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>267.3742467671185</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>47.8158229572546</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>14.59563411086722</v>
+        <v>28.73861889336794</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.7168661215887</v>
       </c>
       <c r="N12" t="n">
-        <v>413.3414387761604</v>
+        <v>413.3414387761607</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>299.0055548062335</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>99.50881304516426</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4938098477195</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>186.493809847721</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,16 +9173,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>184.1089783837164</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>27.68909105506916</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>195.2147227101409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>321.1715469467781</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>86.69056414632868</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>129.9089396341621</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>212.669517906682</v>
+        <v>312.5848451881295</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>99.50881304516338</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>145.4628321502052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>47.8158229572546</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>35.94546781391475</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9884,16 +9884,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>45.41830805827516</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>142.1850824776786</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>321.1715469467765</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>75.48551405485156</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>330.917574395928</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>373.5491236102991</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477206</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>43.63319511246962</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912426</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>47.81582295725465</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.9317202093555</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>119.2140083052577</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912238</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>47.81582295725465</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>163.4718358744504</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>226.6815323111969</v>
+        <v>57.58491713912329</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>137.5207265096703</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>313.0169774802011</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>25.73259819674135</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>186.4938098477207</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.31975858042493</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>75.48551405485094</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>310.6702730805188</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>47.81582295725468</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>246.0227555497653</v>
       </c>
       <c r="O45" t="n">
-        <v>56.95706917397823</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.14919787365423</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>308.4278356241624</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6751640757412</v>
+        <v>335.6751640757413</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>265.86725349647</v>
       </c>
       <c r="I11" t="n">
-        <v>61.25462093850408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>101.9039816156959</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>165.1492113858748</v>
       </c>
       <c r="U11" t="n">
-        <v>204.8767828166183</v>
+        <v>204.8767828166184</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4970524736144</v>
+        <v>102.7731833875964</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9857627208925</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5767741854168</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>120.9916151021073</v>
       </c>
       <c r="D13" t="n">
-        <v>7.731698327584454</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1787566500487</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.16584202641073</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>120.5377438965358</v>
       </c>
       <c r="H13" t="n">
-        <v>105.3203954457954</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.8830058115744</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>239.9984762982212</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8824373273075</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>156.9755588213028</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>218.2157416728391</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>145.0511757830996</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>360.620839745191</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>265.86725349647</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.25462093850413</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.1492113858748</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>281.4970524736144</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.9827326595332</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5767741854168</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>79.72388191395925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1787566500487</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.16584202641079</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5377438965358</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3203954457955</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>158.2371254798764</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>239.9984762982212</v>
       </c>
       <c r="V16" t="n">
-        <v>205.8824373273075</v>
+        <v>205.8824373273076</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>240.2677923400706</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.645317048433438e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-9.043876886282283e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26314,40 +26314,40 @@
         <v>81927.63387170383</v>
       </c>
       <c r="C2" t="n">
+        <v>81927.63387170382</v>
+      </c>
+      <c r="D2" t="n">
         <v>81927.63387170385</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81927.63387170379</v>
       </c>
       <c r="E2" t="n">
         <v>67844.1943154347</v>
       </c>
       <c r="F2" t="n">
-        <v>72763.8492509019</v>
+        <v>72763.84925090188</v>
       </c>
       <c r="G2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="H2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642828</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="L2" t="n">
         <v>82104.17698642828</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642827</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642828</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>765922.9220621451</v>
+        <v>765922.9220621446</v>
       </c>
       <c r="F3" t="n">
-        <v>45631.45848158497</v>
+        <v>45631.458481585</v>
       </c>
       <c r="G3" t="n">
-        <v>49003.6967508034</v>
+        <v>49003.69675080338</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42463.55670056831</v>
+        <v>42463.55670056822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>162894.6891756674</v>
       </c>
       <c r="N3" t="n">
-        <v>39006.49934567601</v>
+        <v>39006.49934567612</v>
       </c>
       <c r="O3" t="n">
-        <v>16334.61225115363</v>
+        <v>16334.6122511536</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>127881.7967627225</v>
       </c>
       <c r="G4" t="n">
-        <v>181150.5889076155</v>
+        <v>181150.5889076156</v>
       </c>
       <c r="H4" t="n">
-        <v>181150.5889076155</v>
+        <v>181150.5889076156</v>
       </c>
       <c r="I4" t="n">
-        <v>181150.5889076155</v>
+        <v>181150.5889076156</v>
       </c>
       <c r="J4" t="n">
-        <v>173949.7893477467</v>
+        <v>173949.7893477468</v>
       </c>
       <c r="K4" t="n">
         <v>173949.7893477468</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>58114.24465058543</v>
+        <v>58114.24465058542</v>
       </c>
       <c r="F5" t="n">
         <v>67797.10999502317</v>
@@ -26491,25 +26491,25 @@
         <v>72946.72472270229</v>
       </c>
       <c r="J5" t="n">
-        <v>76846.39990845602</v>
+        <v>76846.39990845599</v>
       </c>
       <c r="K5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845599</v>
       </c>
       <c r="L5" t="n">
         <v>76846.39990845601</v>
       </c>
       <c r="M5" t="n">
-        <v>76846.39990845602</v>
+        <v>76846.39990845599</v>
       </c>
       <c r="N5" t="n">
         <v>76846.39990845599</v>
       </c>
       <c r="O5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845599</v>
       </c>
       <c r="P5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845599</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366472.3647412551</v>
+        <v>-366476.7783191232</v>
       </c>
       <c r="C6" t="n">
-        <v>-366472.3647412551</v>
+        <v>-366476.7783191233</v>
       </c>
       <c r="D6" t="n">
-        <v>-366472.3647412551</v>
+        <v>-366476.7783191232</v>
       </c>
       <c r="E6" t="n">
-        <v>-867685.9584628444</v>
+        <v>-868042.4580296187</v>
       </c>
       <c r="F6" t="n">
-        <v>-168546.5159884287</v>
+        <v>-168780.024181817</v>
       </c>
       <c r="G6" t="n">
-        <v>-220996.8333946928</v>
+        <v>-220996.8333946929</v>
       </c>
       <c r="H6" t="n">
-        <v>-171993.1366438894</v>
+        <v>-171993.1366438896</v>
       </c>
       <c r="I6" t="n">
-        <v>-171993.1366438894</v>
+        <v>-171993.1366438895</v>
       </c>
       <c r="J6" t="n">
         <v>-211155.5689703427</v>
       </c>
       <c r="K6" t="n">
-        <v>-168692.0122697745</v>
+        <v>-168692.0122697744</v>
       </c>
       <c r="L6" t="n">
-        <v>-217695.7090205778</v>
+        <v>-217695.709020578</v>
       </c>
       <c r="M6" t="n">
-        <v>-331586.7014454419</v>
+        <v>-331586.7014454418</v>
       </c>
       <c r="N6" t="n">
-        <v>-207698.5116154504</v>
+        <v>-207698.5116154506</v>
       </c>
       <c r="O6" t="n">
-        <v>-185026.6245209282</v>
+        <v>-185026.6245209281</v>
       </c>
       <c r="P6" t="n">
         <v>-168692.0122697745</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="F2" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="G2" t="n">
         <v>107.5098269350247</v>
@@ -26707,25 +26707,25 @@
         <v>107.5098269350247</v>
       </c>
       <c r="J2" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="K2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="L2" t="n">
         <v>81.67288625244623</v>
       </c>
       <c r="M2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="N2" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="O2" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="P2" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504527</v>
       </c>
       <c r="F3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504527</v>
       </c>
       <c r="G3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504527</v>
       </c>
       <c r="H3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="I3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="J3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="K3" t="n">
         <v>664.361794450453</v>
       </c>
       <c r="L3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="M3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="N3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="O3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504529</v>
       </c>
       <c r="P3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504529</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>812.9176638664773</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="G4" t="n">
-        <v>812.9176638664773</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="H4" t="n">
-        <v>812.9176638664773</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="I4" t="n">
-        <v>812.9176638664773</v>
+        <v>812.9176638664774</v>
       </c>
       <c r="J4" t="n">
-        <v>912.7821532085402</v>
+        <v>912.7821532085399</v>
       </c>
       <c r="K4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085397</v>
       </c>
       <c r="L4" t="n">
         <v>912.78215320854</v>
       </c>
       <c r="M4" t="n">
-        <v>912.7821532085401</v>
+        <v>912.7821532085396</v>
       </c>
       <c r="N4" t="n">
         <v>912.7821532085399</v>
       </c>
       <c r="O4" t="n">
-        <v>912.7821532085399</v>
+        <v>912.7821532085397</v>
       </c>
       <c r="P4" t="n">
-        <v>912.7821532085399</v>
+        <v>912.7821532085397</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.25462093850425</v>
+        <v>61.25462093850423</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41826531394199</v>
+        <v>20.41826531394202</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>61.25462093850425</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394204</v>
+        <v>20.41826531394199</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.3617944504532</v>
+        <v>664.3617944504527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>159.2576536914103</v>
+        <v>159.2576536914104</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>99.86448934206294</v>
+        <v>99.86448934206248</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.6600101750671</v>
+        <v>653.6600101750666</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914102</v>
+        <v>159.2576536914106</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850425</v>
+        <v>61.25462093850423</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394199</v>
+        <v>20.41826531394202</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914103</v>
+        <v>159.2576536914104</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="C11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="D11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="E11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="F11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="G11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="H11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="I11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="T11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="U11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="V11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="W11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="X11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="C13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="D13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="E13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="F13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="G13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="H13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="I13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="J13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="K13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="L13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="M13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="N13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="O13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="P13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="R13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="S13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="T13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="U13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="V13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="W13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="X13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.25520599652052</v>
+        <v>46.25520599652049</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="C14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="D14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="E14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="F14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="G14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="H14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="I14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="T14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="U14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="V14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="W14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="X14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="C16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="D16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="E16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="F16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="G16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="H16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="I16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="J16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="K16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="L16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="M16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="N16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="O16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="P16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="R16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="S16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="T16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="U16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="V16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="W16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="X16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.25520599652046</v>
+        <v>46.25520599652043</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>107.5098269350247</v>
       </c>
       <c r="I17" t="n">
-        <v>107.5098269350246</v>
+        <v>107.5098269350247</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>16.57887240984641</v>
       </c>
       <c r="N19" t="n">
-        <v>16.57887240984471</v>
+        <v>107.5098269350247</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.5098269350247</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>107.5098269350247</v>
@@ -28819,7 +28819,7 @@
         <v>107.5098269350247</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>16.57887240984508</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>107.5098269350247</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>16.57887240984483</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>107.5098269350247</v>
@@ -29217,28 +29217,28 @@
         <v>107.5098269350247</v>
       </c>
       <c r="J25" t="n">
-        <v>8.658496912719102</v>
+        <v>107.5098269350247</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>16.57887240984516</v>
+      </c>
+      <c r="P25" t="n">
         <v>107.5098269350247</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>107.5098269350247</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>7.920375497125523</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>107.5098269350247</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="K28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="L28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="M28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="N28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="O28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="P28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="R28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="S28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.67288625244618</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="C29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="D29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="E29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="F29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="G29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="H29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="I29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="T29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="U29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="V29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="W29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="X29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="C31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="D31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="E31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="F31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="G31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="H31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="I31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="J31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="K31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="L31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="M31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="N31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="O31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="P31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="R31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="S31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="T31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="U31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="V31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="W31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="X31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244622</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="K37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="L37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="M37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="N37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="O37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="P37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="R37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="S37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244596</v>
       </c>
       <c r="K40" t="n">
-        <v>81.67288625244692</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="L40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="M40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="N40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="O40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="P40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="R40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="S40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.6728862524462</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="C43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="D43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="E43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="F43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="G43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="H43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="I43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="J43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="K43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="L43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="M43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="N43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="O43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="P43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="R43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="S43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="T43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="U43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="V43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="W43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="X43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244623</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="C44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="D44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="E44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="F44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="G44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="H44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="I44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="T44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="U44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="V44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="W44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="X44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="C46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="D46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="E46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="F46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="G46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="H46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="I46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="J46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="K46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244473</v>
       </c>
       <c r="L46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="M46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="N46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="O46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="P46" t="n">
-        <v>81.67288625244606</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="R46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="S46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="T46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="U46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="V46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="W46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="X46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.67288625244626</v>
+        <v>81.67288625244632</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H11" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9660626353813</v>
+        <v>102.9660626353812</v>
       </c>
       <c r="J11" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667904</v>
       </c>
       <c r="K11" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736755</v>
       </c>
       <c r="L11" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999591</v>
       </c>
       <c r="M11" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N11" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141926</v>
       </c>
       <c r="O11" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435727</v>
       </c>
       <c r="P11" t="n">
-        <v>384.0645487204753</v>
+        <v>384.064548720475</v>
       </c>
       <c r="Q11" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284877</v>
       </c>
       <c r="R11" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S11" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T11" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U11" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976328</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478332</v>
       </c>
       <c r="H12" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I12" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J12" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K12" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177577</v>
       </c>
       <c r="L12" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M12" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N12" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822396</v>
       </c>
       <c r="O12" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P12" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R12" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962843</v>
       </c>
       <c r="S12" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T12" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603452</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788377</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H13" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I13" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773931</v>
       </c>
       <c r="J13" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395362</v>
       </c>
       <c r="K13" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M13" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N13" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O13" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P13" t="n">
         <v>144.8962182519479</v>
@@ -31941,16 +31941,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R13" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S13" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887733</v>
       </c>
       <c r="T13" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355946</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922493</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H14" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I14" t="n">
-        <v>102.9660626353813</v>
+        <v>102.9660626353812</v>
       </c>
       <c r="J14" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667904</v>
       </c>
       <c r="K14" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736755</v>
       </c>
       <c r="L14" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999591</v>
       </c>
       <c r="M14" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N14" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141926</v>
       </c>
       <c r="O14" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435727</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0645487204753</v>
+        <v>384.064548720475</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284877</v>
       </c>
       <c r="R14" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S14" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T14" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U14" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976328</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478332</v>
       </c>
       <c r="H15" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I15" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J15" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K15" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177577</v>
       </c>
       <c r="L15" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M15" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822396</v>
       </c>
       <c r="O15" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P15" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R15" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962843</v>
       </c>
       <c r="S15" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T15" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603452</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788377</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H16" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I16" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773931</v>
       </c>
       <c r="J16" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395362</v>
       </c>
       <c r="K16" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M16" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N16" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O16" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P16" t="n">
         <v>144.8962182519479</v>
@@ -32178,16 +32178,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R16" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S16" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887733</v>
       </c>
       <c r="T16" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355946</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922493</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H17" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I17" t="n">
-        <v>102.9660626353813</v>
+        <v>102.9660626353812</v>
       </c>
       <c r="J17" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667904</v>
       </c>
       <c r="K17" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736755</v>
       </c>
       <c r="L17" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999591</v>
       </c>
       <c r="M17" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N17" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141926</v>
       </c>
       <c r="O17" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435727</v>
       </c>
       <c r="P17" t="n">
-        <v>384.0645487204753</v>
+        <v>384.064548720475</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284877</v>
       </c>
       <c r="R17" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S17" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T17" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U17" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976328</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.429004614478333</v>
+        <v>1.429004614478332</v>
       </c>
       <c r="H18" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I18" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J18" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K18" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177577</v>
       </c>
       <c r="L18" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M18" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N18" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822396</v>
       </c>
       <c r="O18" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P18" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R18" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962843</v>
       </c>
       <c r="S18" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T18" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603452</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.0940134614788377</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H19" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I19" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773931</v>
       </c>
       <c r="J19" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395362</v>
       </c>
       <c r="K19" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L19" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M19" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N19" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O19" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P19" t="n">
         <v>144.8962182519479</v>
@@ -32415,16 +32415,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R19" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S19" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887733</v>
       </c>
       <c r="T19" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355946</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922493</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H20" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I20" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J20" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667905</v>
       </c>
       <c r="K20" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736756</v>
       </c>
       <c r="L20" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M20" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N20" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O20" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435729</v>
       </c>
       <c r="P20" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q20" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R20" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S20" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T20" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U20" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976329</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H21" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I21" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J21" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K21" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177578</v>
       </c>
       <c r="L21" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M21" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N21" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O21" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P21" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R21" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S21" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T21" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H22" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I22" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J22" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K22" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L22" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M22" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N22" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O22" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P22" t="n">
         <v>144.8962182519479</v>
@@ -32652,16 +32652,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R22" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S22" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887734</v>
       </c>
       <c r="T22" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H23" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I23" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J23" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667905</v>
       </c>
       <c r="K23" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736756</v>
       </c>
       <c r="L23" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M23" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N23" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O23" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435729</v>
       </c>
       <c r="P23" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S23" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T23" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U23" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976329</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H24" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I24" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J24" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K24" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177578</v>
       </c>
       <c r="L24" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M24" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N24" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O24" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P24" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q24" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R24" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S24" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T24" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H25" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I25" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J25" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K25" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M25" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N25" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O25" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P25" t="n">
         <v>144.8962182519479</v>
@@ -32889,16 +32889,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R25" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S25" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887734</v>
       </c>
       <c r="T25" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.670801183720413</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H26" t="n">
-        <v>27.35234262277669</v>
+        <v>27.35234262277667</v>
       </c>
       <c r="I26" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J26" t="n">
-        <v>226.6809119667906</v>
+        <v>226.6809119667905</v>
       </c>
       <c r="K26" t="n">
-        <v>339.7359260736757</v>
+        <v>339.7359260736756</v>
       </c>
       <c r="L26" t="n">
-        <v>421.4724577999594</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M26" t="n">
-        <v>468.9693183509473</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N26" t="n">
-        <v>476.5577322141929</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O26" t="n">
-        <v>449.9999529435731</v>
+        <v>449.9999529435729</v>
       </c>
       <c r="P26" t="n">
-        <v>384.0645487204753</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q26" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R26" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S26" t="n">
-        <v>60.86088197402897</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T26" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U26" t="n">
-        <v>0.213664094697633</v>
+        <v>0.2136640946976329</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H27" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I27" t="n">
-        <v>49.20037817392508</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J27" t="n">
-        <v>135.0095982477096</v>
+        <v>135.0095982477095</v>
       </c>
       <c r="K27" t="n">
-        <v>230.7529074177579</v>
+        <v>230.7529074177578</v>
       </c>
       <c r="L27" t="n">
-        <v>310.2757607006574</v>
+        <v>310.2757607006573</v>
       </c>
       <c r="M27" t="n">
-        <v>362.077177975497</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N27" t="n">
-        <v>371.6602834822399</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O27" t="n">
-        <v>339.9965496561673</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P27" t="n">
-        <v>272.8772057243758</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q27" t="n">
-        <v>182.4111855253396</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R27" t="n">
-        <v>88.72363737962849</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S27" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T27" t="n">
-        <v>5.759891406603455</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09401346147883775</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H28" t="n">
-        <v>10.65157106512367</v>
+        <v>10.65157106512366</v>
       </c>
       <c r="I28" t="n">
-        <v>36.02801337773934</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J28" t="n">
-        <v>84.70068320395367</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K28" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L28" t="n">
-        <v>178.1143079744707</v>
+        <v>178.1143079744706</v>
       </c>
       <c r="M28" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N28" t="n">
-        <v>183.3311817374506</v>
+        <v>183.3311817374505</v>
       </c>
       <c r="O28" t="n">
-        <v>169.3360193461582</v>
+        <v>169.3360193461581</v>
       </c>
       <c r="P28" t="n">
         <v>144.8962182519479</v>
@@ -33126,16 +33126,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R28" t="n">
-        <v>53.86776123527771</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S28" t="n">
-        <v>20.87838622887735</v>
+        <v>20.87838622887734</v>
       </c>
       <c r="T28" t="n">
-        <v>5.118853170355949</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06534706174922497</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H32" t="n">
         <v>27.35234262277667</v>
@@ -33424,28 +33424,28 @@
         <v>339.7359260736756</v>
       </c>
       <c r="L32" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M32" t="n">
-        <v>468.9693183509471</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N32" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O32" t="n">
         <v>449.9999529435729</v>
       </c>
       <c r="P32" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q32" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R32" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S32" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T32" t="n">
         <v>11.69143218173611</v>
@@ -33491,10 +33491,10 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H33" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I33" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J33" t="n">
         <v>135.0095982477095</v>
@@ -33506,31 +33506,31 @@
         <v>310.2757607006573</v>
       </c>
       <c r="M33" t="n">
-        <v>362.0771779754969</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N33" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O33" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P33" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q33" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R33" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S33" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T33" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,19 +33573,19 @@
         <v>10.65157106512366</v>
       </c>
       <c r="I34" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J34" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K34" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L34" t="n">
         <v>178.1143079744706</v>
       </c>
       <c r="M34" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N34" t="n">
         <v>183.3311817374505</v>
@@ -33600,16 +33600,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R34" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S34" t="n">
         <v>20.87838622887734</v>
       </c>
       <c r="T34" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H35" t="n">
         <v>27.35234262277667</v>
@@ -33661,28 +33661,28 @@
         <v>339.7359260736756</v>
       </c>
       <c r="L35" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M35" t="n">
-        <v>468.9693183509471</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N35" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O35" t="n">
         <v>449.9999529435729</v>
       </c>
       <c r="P35" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q35" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R35" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S35" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T35" t="n">
         <v>11.69143218173611</v>
@@ -33728,10 +33728,10 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H36" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I36" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J36" t="n">
         <v>135.0095982477095</v>
@@ -33743,31 +33743,31 @@
         <v>310.2757607006573</v>
       </c>
       <c r="M36" t="n">
-        <v>362.0771779754969</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N36" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O36" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q36" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R36" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S36" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T36" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,19 +33810,19 @@
         <v>10.65157106512366</v>
       </c>
       <c r="I37" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J37" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K37" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L37" t="n">
         <v>178.1143079744706</v>
       </c>
       <c r="M37" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N37" t="n">
         <v>183.3311817374505</v>
@@ -33837,16 +33837,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R37" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S37" t="n">
         <v>20.87838622887734</v>
       </c>
       <c r="T37" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H38" t="n">
         <v>27.35234262277667</v>
@@ -33898,28 +33898,28 @@
         <v>339.7359260736756</v>
       </c>
       <c r="L38" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M38" t="n">
-        <v>468.9693183509471</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N38" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O38" t="n">
         <v>449.9999529435729</v>
       </c>
       <c r="P38" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q38" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R38" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S38" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T38" t="n">
         <v>11.69143218173611</v>
@@ -33965,10 +33965,10 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H39" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I39" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J39" t="n">
         <v>135.0095982477095</v>
@@ -33980,31 +33980,31 @@
         <v>310.2757607006573</v>
       </c>
       <c r="M39" t="n">
-        <v>362.0771779754969</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N39" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O39" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P39" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q39" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R39" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S39" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T39" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,19 +34047,19 @@
         <v>10.65157106512366</v>
       </c>
       <c r="I40" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J40" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K40" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L40" t="n">
         <v>178.1143079744706</v>
       </c>
       <c r="M40" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N40" t="n">
         <v>183.3311817374505</v>
@@ -34074,16 +34074,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R40" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S40" t="n">
         <v>20.87838622887734</v>
       </c>
       <c r="T40" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H41" t="n">
         <v>27.35234262277667</v>
@@ -34135,28 +34135,28 @@
         <v>339.7359260736756</v>
       </c>
       <c r="L41" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M41" t="n">
-        <v>468.9693183509471</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N41" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O41" t="n">
         <v>449.9999529435729</v>
       </c>
       <c r="P41" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q41" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R41" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S41" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T41" t="n">
         <v>11.69143218173611</v>
@@ -34202,10 +34202,10 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H42" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I42" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J42" t="n">
         <v>135.0095982477095</v>
@@ -34217,31 +34217,31 @@
         <v>310.2757607006573</v>
       </c>
       <c r="M42" t="n">
-        <v>362.0771779754969</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O42" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P42" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q42" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R42" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S42" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T42" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,19 +34284,19 @@
         <v>10.65157106512366</v>
       </c>
       <c r="I43" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J43" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K43" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L43" t="n">
         <v>178.1143079744706</v>
       </c>
       <c r="M43" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N43" t="n">
         <v>183.3311817374505</v>
@@ -34311,16 +34311,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R43" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S43" t="n">
         <v>20.87838622887734</v>
       </c>
       <c r="T43" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720411</v>
       </c>
       <c r="H44" t="n">
         <v>27.35234262277667</v>
@@ -34372,28 +34372,28 @@
         <v>339.7359260736756</v>
       </c>
       <c r="L44" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999592</v>
       </c>
       <c r="M44" t="n">
-        <v>468.9693183509471</v>
+        <v>468.969318350947</v>
       </c>
       <c r="N44" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141927</v>
       </c>
       <c r="O44" t="n">
         <v>449.9999529435729</v>
       </c>
       <c r="P44" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204751</v>
       </c>
       <c r="Q44" t="n">
-        <v>288.4164813284879</v>
+        <v>288.4164813284878</v>
       </c>
       <c r="R44" t="n">
-        <v>167.7697148568775</v>
+        <v>167.7697148568774</v>
       </c>
       <c r="S44" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402893</v>
       </c>
       <c r="T44" t="n">
         <v>11.69143218173611</v>
@@ -34439,10 +34439,10 @@
         <v>1.429004614478333</v>
       </c>
       <c r="H45" t="n">
-        <v>13.80117614509338</v>
+        <v>13.80117614509337</v>
       </c>
       <c r="I45" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392505</v>
       </c>
       <c r="J45" t="n">
         <v>135.0095982477095</v>
@@ -34454,31 +34454,31 @@
         <v>310.2757607006573</v>
       </c>
       <c r="M45" t="n">
-        <v>362.0771779754969</v>
+        <v>362.0771779754967</v>
       </c>
       <c r="N45" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822397</v>
       </c>
       <c r="O45" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561671</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243756</v>
       </c>
       <c r="Q45" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253394</v>
       </c>
       <c r="R45" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962844</v>
       </c>
       <c r="S45" t="n">
-        <v>26.54313395752516</v>
+        <v>26.54313395752515</v>
       </c>
       <c r="T45" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603453</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883771</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,19 +34521,19 @@
         <v>10.65157106512366</v>
       </c>
       <c r="I46" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773932</v>
       </c>
       <c r="J46" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395363</v>
       </c>
       <c r="K46" t="n">
-        <v>139.189241525849</v>
+        <v>139.1892415258489</v>
       </c>
       <c r="L46" t="n">
         <v>178.1143079744706</v>
       </c>
       <c r="M46" t="n">
-        <v>187.7965642903141</v>
+        <v>187.796564290314</v>
       </c>
       <c r="N46" t="n">
         <v>183.3311817374505</v>
@@ -34548,16 +34548,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R46" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527768</v>
       </c>
       <c r="S46" t="n">
         <v>20.87838622887734</v>
       </c>
       <c r="T46" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355947</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.63500744010432</v>
+        <v>214.7316226121779</v>
       </c>
       <c r="K11" t="n">
-        <v>443.7914875998599</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L11" t="n">
-        <v>603.3672573804226</v>
+        <v>185.7060428299719</v>
       </c>
       <c r="M11" t="n">
-        <v>238.6230851236745</v>
+        <v>238.6230851236743</v>
       </c>
       <c r="N11" t="n">
-        <v>437.1684304907117</v>
+        <v>247.1446686176017</v>
       </c>
       <c r="O11" t="n">
-        <v>600.7019227846317</v>
+        <v>487.2759882890045</v>
       </c>
       <c r="P11" t="n">
-        <v>152.8315529652058</v>
+        <v>474.6302611366881</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.11079145403843</v>
+        <v>278.4257821139429</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17.90059691572773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K12" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559773</v>
       </c>
       <c r="L12" t="n">
-        <v>186.3170150316505</v>
+        <v>200.459999814151</v>
       </c>
       <c r="M12" t="n">
-        <v>219.9431440534786</v>
+        <v>653.660010175067</v>
       </c>
       <c r="N12" t="n">
         <v>653.660010175067</v>
       </c>
       <c r="O12" t="n">
-        <v>591.2626244884524</v>
+        <v>197.4003052117226</v>
       </c>
       <c r="P12" t="n">
-        <v>457.3655669499827</v>
+        <v>138.9027983100453</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.5066991751671</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.59670908380141</v>
+        <v>37.59670908380134</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1749556964867</v>
+        <v>163.1749556964865</v>
       </c>
       <c r="L13" t="n">
-        <v>251.9595392313074</v>
+        <v>251.9595392313072</v>
       </c>
       <c r="M13" t="n">
-        <v>273.6356472486752</v>
+        <v>273.6356472486751</v>
       </c>
       <c r="N13" t="n">
-        <v>273.7185601131997</v>
+        <v>273.7185601131995</v>
       </c>
       <c r="O13" t="n">
-        <v>240.1763532567184</v>
+        <v>240.1763532567182</v>
       </c>
       <c r="P13" t="n">
-        <v>188.4299835133619</v>
+        <v>188.4299835133618</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.41179370684456</v>
+        <v>60.41179370684447</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.63500744010432</v>
+        <v>214.7316226121779</v>
       </c>
       <c r="K14" t="n">
-        <v>418.6516298349287</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L14" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804223</v>
       </c>
       <c r="M14" t="n">
-        <v>688.136618616507</v>
+        <v>338.1318981688385</v>
       </c>
       <c r="N14" t="n">
-        <v>684.4915930295862</v>
+        <v>247.1446686176017</v>
       </c>
       <c r="O14" t="n">
-        <v>219.9017415218864</v>
+        <v>600.7019227846314</v>
       </c>
       <c r="P14" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366881</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.11079145403843</v>
+        <v>278.4257821139429</v>
       </c>
       <c r="R14" t="n">
-        <v>17.90059691572785</v>
+        <v>17.90059691572773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K15" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559773</v>
       </c>
       <c r="L15" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242422</v>
       </c>
       <c r="M15" t="n">
-        <v>219.9431440534786</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N15" t="n">
-        <v>426.8123812466261</v>
+        <v>240.3185713989063</v>
       </c>
       <c r="O15" t="n">
-        <v>197.4003052117229</v>
+        <v>383.8941150594436</v>
       </c>
       <c r="P15" t="n">
-        <v>457.3655669499827</v>
+        <v>457.3655669499825</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.5066991751671</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.59670908380136</v>
+        <v>37.59670908380127</v>
       </c>
       <c r="K16" t="n">
-        <v>163.1749556964866</v>
+        <v>163.1749556964865</v>
       </c>
       <c r="L16" t="n">
-        <v>251.9595392313073</v>
+        <v>251.9595392313071</v>
       </c>
       <c r="M16" t="n">
-        <v>273.6356472486752</v>
+        <v>273.635647248675</v>
       </c>
       <c r="N16" t="n">
-        <v>273.7185601131996</v>
+        <v>273.7185601131995</v>
       </c>
       <c r="O16" t="n">
-        <v>240.1763532567183</v>
+        <v>240.1763532567182</v>
       </c>
       <c r="P16" t="n">
-        <v>188.4299835133619</v>
+        <v>188.4299835133618</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.41179370684451</v>
+        <v>60.41179370684441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214.7316226121781</v>
+        <v>45.63500744010415</v>
       </c>
       <c r="K17" t="n">
-        <v>443.7914875998599</v>
+        <v>119.646075028695</v>
       </c>
       <c r="L17" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804223</v>
       </c>
       <c r="M17" t="n">
-        <v>688.136618616507</v>
+        <v>688.1366186165068</v>
       </c>
       <c r="N17" t="n">
-        <v>431.2536470013184</v>
+        <v>684.4915930295858</v>
       </c>
       <c r="O17" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846314</v>
       </c>
       <c r="P17" t="n">
-        <v>152.8315529652058</v>
+        <v>180.5206440202747</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.11079145403843</v>
+        <v>278.4257821139429</v>
       </c>
       <c r="R17" t="n">
-        <v>17.90059691572785</v>
+        <v>17.90059691572773</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K18" t="n">
-        <v>288.1261911535398</v>
+        <v>357.3767054559773</v>
       </c>
       <c r="L18" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242422</v>
       </c>
       <c r="M18" t="n">
-        <v>685.6482078034785</v>
+        <v>541.1146910002565</v>
       </c>
       <c r="N18" t="n">
-        <v>719.6609457424602</v>
+        <v>240.3185713989063</v>
       </c>
       <c r="O18" t="n">
-        <v>197.4003052117229</v>
+        <v>591.2626244884522</v>
       </c>
       <c r="P18" t="n">
-        <v>138.9027983100456</v>
+        <v>138.9027983100453</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.5066991751671</v>
+        <v>42.4294114393179</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>98.8513300223056</v>
+        <v>98.8513300223055</v>
       </c>
       <c r="K19" t="n">
-        <v>116.9197496999662</v>
+        <v>116.919749699966</v>
       </c>
       <c r="L19" t="n">
-        <v>205.7043332347868</v>
+        <v>205.7043332347867</v>
       </c>
       <c r="M19" t="n">
-        <v>227.3804412521547</v>
+        <v>243.959313662001</v>
       </c>
       <c r="N19" t="n">
-        <v>244.0422265265239</v>
+        <v>334.9731810517037</v>
       </c>
       <c r="O19" t="n">
-        <v>193.9211472601979</v>
+        <v>193.9211472601977</v>
       </c>
       <c r="P19" t="n">
-        <v>142.1747775168414</v>
+        <v>142.1747775168413</v>
       </c>
       <c r="Q19" t="n">
-        <v>121.6664146453488</v>
+        <v>14.15658771032398</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.63500744010432</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K20" t="n">
-        <v>206.3366391750239</v>
+        <v>119.646075028695</v>
       </c>
       <c r="L20" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804224</v>
       </c>
       <c r="M20" t="n">
-        <v>688.136618616507</v>
+        <v>688.1366186165068</v>
       </c>
       <c r="N20" t="n">
-        <v>684.4915930295862</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O20" t="n">
-        <v>219.9017415218864</v>
+        <v>219.9017415218861</v>
       </c>
       <c r="P20" t="n">
-        <v>474.6302611366884</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.4257821139431</v>
+        <v>196.0197310882004</v>
       </c>
       <c r="R20" t="n">
-        <v>17.90059691572785</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.2630069214517</v>
+        <v>8.171971581042811</v>
       </c>
       <c r="K21" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L21" t="n">
-        <v>171.7213809207832</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M21" t="n">
-        <v>432.6126619601606</v>
+        <v>532.5279892416079</v>
       </c>
       <c r="N21" t="n">
-        <v>719.6609457424602</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O21" t="n">
-        <v>591.2626244884524</v>
+        <v>197.4003052117227</v>
       </c>
       <c r="P21" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499826</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.42941143931805</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>98.8513300223056</v>
+        <v>98.85133002230558</v>
       </c>
       <c r="K22" t="n">
-        <v>116.9197496999662</v>
+        <v>116.9197496999661</v>
       </c>
       <c r="L22" t="n">
-        <v>205.7043332347868</v>
+        <v>222.2832056446318</v>
       </c>
       <c r="M22" t="n">
-        <v>227.3804412521547</v>
+        <v>227.3804412521546</v>
       </c>
       <c r="N22" t="n">
-        <v>334.9731810517039</v>
+        <v>227.4633541166791</v>
       </c>
       <c r="O22" t="n">
-        <v>193.9211472601979</v>
+        <v>193.9211472601978</v>
       </c>
       <c r="P22" t="n">
-        <v>142.1747775168414</v>
+        <v>249.6846044518661</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.73546012016887</v>
+        <v>14.15658771032399</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>214.7316226121781</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K23" t="n">
-        <v>443.7914875998599</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L23" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804224</v>
       </c>
       <c r="M23" t="n">
-        <v>688.136618616507</v>
+        <v>238.6230851236743</v>
       </c>
       <c r="N23" t="n">
-        <v>684.4915930295862</v>
+        <v>346.6534816627652</v>
       </c>
       <c r="O23" t="n">
-        <v>219.9017415218864</v>
+        <v>600.7019227846315</v>
       </c>
       <c r="P23" t="n">
-        <v>152.8315529652058</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.5736236042437</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.171971581042868</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K24" t="n">
-        <v>92.91146844339892</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L24" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M24" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N24" t="n">
-        <v>276.2640392128213</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O24" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P24" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499826</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.5066991751671</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>98.85133002230558</v>
       </c>
       <c r="K25" t="n">
-        <v>116.9197496999662</v>
+        <v>116.9197496999661</v>
       </c>
       <c r="L25" t="n">
-        <v>313.2141601698115</v>
+        <v>205.7043332347867</v>
       </c>
       <c r="M25" t="n">
-        <v>227.3804412521547</v>
+        <v>227.3804412521546</v>
       </c>
       <c r="N25" t="n">
-        <v>227.4633541166792</v>
+        <v>227.4633541166791</v>
       </c>
       <c r="O25" t="n">
-        <v>301.4309741952226</v>
+        <v>210.5000196700429</v>
       </c>
       <c r="P25" t="n">
-        <v>142.1747775168414</v>
+        <v>249.6846044518661</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.07696320744957</v>
+        <v>14.15658771032399</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>214.7316226121781</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K26" t="n">
-        <v>443.7914875998599</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L26" t="n">
-        <v>603.3672573804226</v>
+        <v>603.3672573804224</v>
       </c>
       <c r="M26" t="n">
-        <v>688.136618616507</v>
+        <v>688.1366186165068</v>
       </c>
       <c r="N26" t="n">
-        <v>684.4915930295862</v>
+        <v>292.5629766758769</v>
       </c>
       <c r="O26" t="n">
-        <v>600.7019227846317</v>
+        <v>600.7019227846315</v>
       </c>
       <c r="P26" t="n">
-        <v>295.0166354428844</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.11079145403843</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R26" t="n">
-        <v>17.90059691572785</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K27" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L27" t="n">
-        <v>542.5617262242424</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1146910002551</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N27" t="n">
-        <v>240.3185713989066</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O27" t="n">
-        <v>591.2626244884524</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9027983100456</v>
+        <v>457.3655669499826</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.42941143931805</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.01438933972707</v>
+        <v>73.0143893397271</v>
       </c>
       <c r="K28" t="n">
         <v>198.5926359524123</v>
@@ -36771,7 +36771,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.82947396277022</v>
+        <v>95.82947396277024</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>214.731622612178</v>
       </c>
       <c r="K29" t="n">
-        <v>443.7914875998598</v>
+        <v>119.6460750286951</v>
       </c>
       <c r="L29" t="n">
         <v>603.3672573804224</v>
       </c>
       <c r="M29" t="n">
-        <v>314.1085991785259</v>
+        <v>688.1366186165069</v>
       </c>
       <c r="N29" t="n">
         <v>684.4915930295861</v>
       </c>
       <c r="O29" t="n">
-        <v>600.7019227846315</v>
+        <v>550.8193159178142</v>
       </c>
       <c r="P29" t="n">
         <v>474.6302611366883</v>
@@ -36914,22 +36914,22 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L30" t="n">
-        <v>171.7213809207831</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M30" t="n">
         <v>219.9431440534785</v>
       </c>
       <c r="N30" t="n">
-        <v>613.8676950092056</v>
+        <v>240.3185713989065</v>
       </c>
       <c r="O30" t="n">
-        <v>591.2626244884523</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P30" t="n">
         <v>457.3655669499826</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.42941143931796</v>
+        <v>252.5066991751671</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972709</v>
       </c>
       <c r="K31" t="n">
         <v>198.5926359524123</v>
@@ -37008,7 +37008,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277024</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>214.731622612178</v>
       </c>
       <c r="K32" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L32" t="n">
-        <v>229.3392379424417</v>
+        <v>603.3672573804224</v>
       </c>
       <c r="M32" t="n">
-        <v>688.1366186165069</v>
+        <v>296.2080022627986</v>
       </c>
       <c r="N32" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O32" t="n">
         <v>600.7019227846315</v>
       </c>
       <c r="P32" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q32" t="n">
-        <v>278.4257821139431</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K33" t="n">
-        <v>92.91146844339883</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L33" t="n">
         <v>542.5617262242423</v>
       </c>
       <c r="M33" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N33" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O33" t="n">
-        <v>591.2626244884523</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P33" t="n">
-        <v>138.9027983100455</v>
+        <v>457.3655669499826</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.3611316486734</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972709</v>
       </c>
       <c r="K34" t="n">
         <v>198.5926359524123</v>
@@ -37233,7 +37233,7 @@
         <v>287.377219487233</v>
       </c>
       <c r="M34" t="n">
-        <v>309.0533275046009</v>
+        <v>309.0533275046008</v>
       </c>
       <c r="N34" t="n">
         <v>309.1362403691253</v>
@@ -37245,7 +37245,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277022</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.63500744010423</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K35" t="n">
-        <v>238.8600833339528</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L35" t="n">
         <v>603.3672573804224</v>
       </c>
       <c r="M35" t="n">
-        <v>688.1366186165069</v>
+        <v>296.2080022627967</v>
       </c>
       <c r="N35" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O35" t="n">
         <v>600.7019227846315</v>
       </c>
       <c r="P35" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q35" t="n">
-        <v>278.4257821139431</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>134.2630069214517</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K36" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L36" t="n">
-        <v>171.7213809207831</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M36" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N36" t="n">
-        <v>403.7904072733569</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O36" t="n">
-        <v>591.2626244884523</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P36" t="n">
         <v>457.3655669499826</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.5066991751671</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.01438933972709</v>
+        <v>73.01438933972712</v>
       </c>
       <c r="K37" t="n">
         <v>198.5926359524123</v>
@@ -37482,7 +37482,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.82947396277024</v>
+        <v>95.82947396277025</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.63500744010423</v>
+        <v>214.731622612178</v>
       </c>
       <c r="K38" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L38" t="n">
         <v>603.3672573804224</v>
       </c>
       <c r="M38" t="n">
-        <v>465.3046174348713</v>
+        <v>296.2080022627976</v>
       </c>
       <c r="N38" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O38" t="n">
         <v>600.7019227846315</v>
       </c>
       <c r="P38" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.4257821139431</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R38" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.17197158104284</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K39" t="n">
-        <v>92.91146844339883</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L39" t="n">
-        <v>309.2421074304534</v>
+        <v>542.5617262242423</v>
       </c>
       <c r="M39" t="n">
-        <v>685.6482078034785</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N39" t="n">
-        <v>719.6609457424599</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O39" t="n">
-        <v>591.2626244884523</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P39" t="n">
-        <v>138.9027983100455</v>
+        <v>457.3655669499826</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.42941143931796</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.01438933972707</v>
+        <v>73.01438933972682</v>
       </c>
       <c r="K40" t="n">
-        <v>198.592635952413</v>
+        <v>198.5926359524123</v>
       </c>
       <c r="L40" t="n">
         <v>287.377219487233</v>
       </c>
       <c r="M40" t="n">
-        <v>309.0533275046008</v>
+        <v>309.0533275046009</v>
       </c>
       <c r="N40" t="n">
         <v>309.1362403691253</v>
@@ -37719,7 +37719,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.82947396277022</v>
+        <v>95.82947396277025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>214.731622612178</v>
       </c>
       <c r="K41" t="n">
-        <v>432.6630525088962</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L41" t="n">
-        <v>603.3672573804224</v>
+        <v>211.4386410267133</v>
       </c>
       <c r="M41" t="n">
-        <v>688.1366186165069</v>
+        <v>688.1366186165068</v>
       </c>
       <c r="N41" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O41" t="n">
-        <v>219.9017415218862</v>
+        <v>600.7019227846315</v>
       </c>
       <c r="P41" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q41" t="n">
-        <v>278.4257821139431</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R41" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572776</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.17197158104284</v>
+        <v>134.2630069214516</v>
       </c>
       <c r="K42" t="n">
-        <v>357.3767054559775</v>
+        <v>357.3767054559774</v>
       </c>
       <c r="L42" t="n">
         <v>542.5617262242423</v>
       </c>
       <c r="M42" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534784</v>
       </c>
       <c r="N42" t="n">
-        <v>719.6609457424599</v>
+        <v>240.3185713989064</v>
       </c>
       <c r="O42" t="n">
-        <v>197.4003052117228</v>
+        <v>383.8941150594434</v>
       </c>
       <c r="P42" t="n">
         <v>457.3655669499826</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.74917001974289</v>
+        <v>252.506699175167</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.01438933972713</v>
+        <v>73.01438933972709</v>
       </c>
       <c r="K43" t="n">
-        <v>198.5926359524124</v>
+        <v>198.5926359524123</v>
       </c>
       <c r="L43" t="n">
         <v>287.377219487233</v>
       </c>
       <c r="M43" t="n">
-        <v>309.0533275046009</v>
+        <v>309.0533275046008</v>
       </c>
       <c r="N43" t="n">
-        <v>309.1362403691254</v>
+        <v>309.1362403691253</v>
       </c>
       <c r="O43" t="n">
         <v>275.594033512644</v>
       </c>
       <c r="P43" t="n">
-        <v>223.8476637692877</v>
+        <v>223.8476637692876</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.82947396277028</v>
+        <v>95.82947396277022</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>214.731622612178</v>
       </c>
       <c r="K44" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998597</v>
       </c>
       <c r="L44" t="n">
         <v>603.3672573804224</v>
       </c>
       <c r="M44" t="n">
-        <v>688.1366186165069</v>
+        <v>314.1085991785253</v>
       </c>
       <c r="N44" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295859</v>
       </c>
       <c r="O44" t="n">
-        <v>530.5720146024049</v>
+        <v>600.7019227846315</v>
       </c>
       <c r="P44" t="n">
-        <v>152.8315529652056</v>
+        <v>474.6302611366882</v>
       </c>
       <c r="Q44" t="n">
-        <v>278.4257821139431</v>
+        <v>278.425782113943</v>
       </c>
       <c r="R44" t="n">
-        <v>17.90059691572779</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8.17197158104284</v>
+        <v>8.171971581042811</v>
       </c>
       <c r="K45" t="n">
-        <v>357.3767054559775</v>
+        <v>92.9114684433988</v>
       </c>
       <c r="L45" t="n">
         <v>542.5617262242423</v>
       </c>
       <c r="M45" t="n">
-        <v>685.6482078034785</v>
+        <v>685.6482078034783</v>
       </c>
       <c r="N45" t="n">
-        <v>240.3185713989065</v>
+        <v>486.3413269486716</v>
       </c>
       <c r="O45" t="n">
-        <v>254.357374385701</v>
+        <v>591.2626244884523</v>
       </c>
       <c r="P45" t="n">
-        <v>457.3655669499826</v>
+        <v>138.9027983100454</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.42941143931796</v>
+        <v>42.42941143931793</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.01438933972713</v>
+        <v>73.01438933972717</v>
       </c>
       <c r="K46" t="n">
-        <v>198.5926359524124</v>
+        <v>198.5926359524108</v>
       </c>
       <c r="L46" t="n">
         <v>287.377219487233</v>
@@ -38190,10 +38190,10 @@
         <v>275.594033512644</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8476637692875</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.82947396277028</v>
+        <v>95.82947396277031</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
